--- a/AutoFixBCOrder/Source棚.xlsx
+++ b/AutoFixBCOrder/Source棚.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HonC\Desktop\FixBCOrder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\AutoFixBCOrder\AutoFixBCOrder\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4463,18 +4463,12 @@
     <t>080157</t>
   </si>
   <si>
-    <t>KCM1155-02</t>
-  </si>
-  <si>
     <t>W 4 F 2</t>
   </si>
   <si>
     <t>080885</t>
   </si>
   <si>
-    <t>MA4947-4</t>
-  </si>
-  <si>
     <t>W 3 F 2</t>
   </si>
   <si>
@@ -4493,24 +4487,15 @@
     <t>080920</t>
   </si>
   <si>
-    <t>MB7772-2</t>
-  </si>
-  <si>
     <t>080918</t>
   </si>
   <si>
-    <t>MB9152-3</t>
-  </si>
-  <si>
     <t>W 3 D 2</t>
   </si>
   <si>
     <t>080916</t>
   </si>
   <si>
-    <t>MB9153-3</t>
-  </si>
-  <si>
     <t>080914</t>
   </si>
   <si>
@@ -7563,6 +7548,21 @@
   </si>
   <si>
     <t>B58032</t>
+  </si>
+  <si>
+    <t>MB7772</t>
+  </si>
+  <si>
+    <t>MB9152</t>
+  </si>
+  <si>
+    <t>MB9153</t>
+  </si>
+  <si>
+    <t>MA4947</t>
+  </si>
+  <si>
+    <t>KCM1155</t>
   </si>
 </sst>
 </file>
@@ -7905,8 +7905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C930"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A425" workbookViewId="0">
-      <selection activeCell="M433" sqref="M433"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12100,7 +12100,7 @@
         <v>1407</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>2470</v>
+        <v>2465</v>
       </c>
       <c r="C381" s="1" t="s">
         <v>1409</v>
@@ -12111,7 +12111,7 @@
         <v>1410</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>2471</v>
+        <v>2466</v>
       </c>
       <c r="C382" s="1" t="s">
         <v>1412</v>
@@ -12122,7 +12122,7 @@
         <v>1413</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>2472</v>
+        <v>2467</v>
       </c>
       <c r="C383" s="1" t="s">
         <v>1415</v>
@@ -12133,7 +12133,7 @@
         <v>1416</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>2473</v>
+        <v>2468</v>
       </c>
       <c r="C384" s="1" t="s">
         <v>1417</v>
@@ -12144,7 +12144,7 @@
         <v>1418</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>2474</v>
+        <v>2469</v>
       </c>
       <c r="C385" s="1" t="s">
         <v>1420</v>
@@ -12155,7 +12155,7 @@
         <v>1421</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>2475</v>
+        <v>2470</v>
       </c>
       <c r="C386" s="1" t="s">
         <v>1423</v>
@@ -12199,7 +12199,7 @@
         <v>1428</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>2476</v>
+        <v>2471</v>
       </c>
       <c r="C390" s="1" t="s">
         <v>1429</v>
@@ -12210,7 +12210,7 @@
         <v>1430</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>2477</v>
+        <v>2472</v>
       </c>
       <c r="C391" s="1" t="s">
         <v>1432</v>
@@ -12232,7 +12232,7 @@
         <v>1435</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>2478</v>
+        <v>2473</v>
       </c>
       <c r="C393" s="1" t="s">
         <v>1436</v>
@@ -12243,7 +12243,7 @@
         <v>1437</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>2479</v>
+        <v>2474</v>
       </c>
       <c r="C394" s="1" t="s">
         <v>1439</v>
@@ -12254,7 +12254,7 @@
         <v>1440</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>2480</v>
+        <v>2475</v>
       </c>
       <c r="C395" s="1" t="s">
         <v>1441</v>
@@ -12265,7 +12265,7 @@
         <v>1442</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>2481</v>
+        <v>2476</v>
       </c>
       <c r="C396" s="1" t="s">
         <v>1443</v>
@@ -12276,7 +12276,7 @@
         <v>1444</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>2482</v>
+        <v>2477</v>
       </c>
       <c r="C397" s="1" t="s">
         <v>1446</v>
@@ -12287,7 +12287,7 @@
         <v>1447</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>2483</v>
+        <v>2478</v>
       </c>
       <c r="C398" s="1" t="s">
         <v>1448</v>
@@ -12309,7 +12309,7 @@
         <v>1450</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>2484</v>
+        <v>2479</v>
       </c>
       <c r="C400" s="1" t="s">
         <v>1452</v>
@@ -12320,7 +12320,7 @@
         <v>1453</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>2485</v>
+        <v>2480</v>
       </c>
       <c r="C401" s="1" t="s">
         <v>1455</v>
@@ -12331,7 +12331,7 @@
         <v>1456</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>2486</v>
+        <v>2481</v>
       </c>
       <c r="C402" s="1" t="s">
         <v>1458</v>
@@ -12342,7 +12342,7 @@
         <v>1459</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>2487</v>
+        <v>2482</v>
       </c>
       <c r="C403" s="1" t="s">
         <v>1461</v>
@@ -12353,7 +12353,7 @@
         <v>1462</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>2488</v>
+        <v>2483</v>
       </c>
       <c r="C404" s="1" t="s">
         <v>1464</v>
@@ -12400,23 +12400,23 @@
         <v>193</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="409" spans="1:3">
       <c r="A409" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="B409" s="1" t="s">
         <v>195</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="410" spans="1:3">
       <c r="A410" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="B410" s="1" t="s">
         <v>194</v>
@@ -12427,7 +12427,7 @@
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="1" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="B411" s="1" t="s">
         <v>36</v>
@@ -12438,7 +12438,7 @@
     </row>
     <row r="412" spans="1:3">
       <c r="A412" s="1" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="B412" s="1" t="s">
         <v>29</v>
@@ -12449,18 +12449,18 @@
     </row>
     <row r="413" spans="1:3">
       <c r="A413" s="1" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="B413" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="414" spans="1:3">
       <c r="A414" s="1" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="B414" s="1" t="s">
         <v>196</v>
@@ -12471,18 +12471,18 @@
     </row>
     <row r="415" spans="1:3">
       <c r="A415" s="1" t="s">
-        <v>1487</v>
+        <v>1482</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>2489</v>
+        <v>2484</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>1489</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="416" spans="1:3">
       <c r="A416" s="1" t="s">
-        <v>1490</v>
+        <v>1485</v>
       </c>
       <c r="B416" s="1" t="s">
         <v>164</v>
@@ -12493,7 +12493,7 @@
     </row>
     <row r="417" spans="1:3">
       <c r="A417" s="1" t="s">
-        <v>1492</v>
+        <v>1487</v>
       </c>
       <c r="B417" s="1" t="s">
         <v>128</v>
@@ -12504,29 +12504,29 @@
     </row>
     <row r="418" spans="1:3">
       <c r="A418" s="1" t="s">
-        <v>1494</v>
+        <v>1489</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>2490</v>
+        <v>2485</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>1496</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="1" t="s">
-        <v>1497</v>
+        <v>1492</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>2491</v>
+        <v>2486</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>1499</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="420" spans="1:3">
       <c r="A420" s="1" t="s">
-        <v>1500</v>
+        <v>1495</v>
       </c>
       <c r="B420" s="1" t="s">
         <v>182</v>
@@ -12537,7 +12537,7 @@
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="1" t="s">
-        <v>1502</v>
+        <v>1497</v>
       </c>
       <c r="B421" s="1" t="s">
         <v>64</v>
@@ -12548,7 +12548,7 @@
     </row>
     <row r="422" spans="1:3">
       <c r="A422" s="1" t="s">
-        <v>1504</v>
+        <v>1499</v>
       </c>
       <c r="B422" s="1" t="s">
         <v>200</v>
@@ -12559,7 +12559,7 @@
     </row>
     <row r="423" spans="1:3">
       <c r="A423" s="1" t="s">
-        <v>1506</v>
+        <v>1501</v>
       </c>
       <c r="B423" s="1" t="s">
         <v>201</v>
@@ -12570,7 +12570,7 @@
     </row>
     <row r="424" spans="1:3">
       <c r="A424" s="1" t="s">
-        <v>1508</v>
+        <v>1503</v>
       </c>
       <c r="B424" s="1" t="s">
         <v>202</v>
@@ -12581,95 +12581,95 @@
     </row>
     <row r="425" spans="1:3">
       <c r="A425" s="1" t="s">
-        <v>1510</v>
+        <v>1505</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>2492</v>
+        <v>2487</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>1512</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="426" spans="1:3">
       <c r="A426" s="1" t="s">
-        <v>1513</v>
+        <v>1508</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>2493</v>
+        <v>2488</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>1515</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="427" spans="1:3">
       <c r="A427" s="1" t="s">
-        <v>1516</v>
+        <v>1511</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>2494</v>
+        <v>2489</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>1518</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="428" spans="1:3">
       <c r="A428" s="1" t="s">
-        <v>1519</v>
+        <v>1514</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>2495</v>
+        <v>2490</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>1521</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="429" spans="1:3">
       <c r="A429" s="1" t="s">
-        <v>1522</v>
+        <v>1517</v>
       </c>
       <c r="B429" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>1524</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="1" t="s">
-        <v>1525</v>
+        <v>1520</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>2496</v>
+        <v>2491</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>1527</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="431" spans="1:3">
       <c r="A431" s="1" t="s">
-        <v>1528</v>
+        <v>1523</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>2497</v>
+        <v>2492</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>1529</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="432" spans="1:3">
       <c r="A432" s="1" t="s">
-        <v>1530</v>
+        <v>1525</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>2498</v>
+        <v>2493</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>1532</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="1" t="s">
-        <v>1533</v>
+        <v>1528</v>
       </c>
       <c r="B433" s="1" t="s">
         <v>167</v>
@@ -12680,29 +12680,29 @@
     </row>
     <row r="434" spans="1:3">
       <c r="A434" s="1" t="s">
-        <v>1534</v>
+        <v>1529</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>2499</v>
+        <v>2494</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>1535</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="1" t="s">
-        <v>1536</v>
+        <v>1531</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>2500</v>
+        <v>2495</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>1538</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="436" spans="1:3">
       <c r="A436" s="1" t="s">
-        <v>1539</v>
+        <v>1534</v>
       </c>
       <c r="B436" s="1" t="s">
         <v>78</v>
@@ -12713,18 +12713,18 @@
     </row>
     <row r="437" spans="1:3">
       <c r="A437" s="1" t="s">
-        <v>1540</v>
+        <v>1535</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>2501</v>
+        <v>2496</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="1" t="s">
-        <v>1543</v>
+        <v>1538</v>
       </c>
       <c r="B438" s="1" t="s">
         <v>71</v>
@@ -12735,7 +12735,7 @@
     </row>
     <row r="439" spans="1:3">
       <c r="A439" s="1" t="s">
-        <v>1544</v>
+        <v>1539</v>
       </c>
       <c r="B439" s="1" t="s">
         <v>8</v>
@@ -12746,18 +12746,18 @@
     </row>
     <row r="440" spans="1:3">
       <c r="A440" s="1" t="s">
-        <v>1546</v>
+        <v>1541</v>
       </c>
       <c r="B440" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>1547</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="441" spans="1:3">
       <c r="A441" s="1" t="s">
-        <v>1548</v>
+        <v>1543</v>
       </c>
       <c r="B441" s="1" t="s">
         <v>1</v>
@@ -12768,106 +12768,106 @@
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="1" t="s">
-        <v>1549</v>
+        <v>1544</v>
       </c>
       <c r="B442" s="1" t="s">
         <v>166</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>1551</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="443" spans="1:3">
       <c r="A443" s="1" t="s">
-        <v>1552</v>
+        <v>1547</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>2502</v>
+        <v>2497</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>1553</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="1" t="s">
-        <v>1554</v>
+        <v>1549</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>2503</v>
+        <v>2498</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>1555</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="445" spans="1:3">
       <c r="A445" s="1" t="s">
-        <v>1556</v>
+        <v>1551</v>
       </c>
       <c r="B445" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>1558</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="446" spans="1:3">
       <c r="A446" s="1" t="s">
-        <v>1559</v>
+        <v>1554</v>
       </c>
       <c r="B446" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>1561</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="447" spans="1:3">
       <c r="A447" s="1" t="s">
-        <v>1562</v>
+        <v>1557</v>
       </c>
       <c r="B447" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>1563</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="448" spans="1:3">
       <c r="A448" s="1" t="s">
-        <v>1564</v>
+        <v>1559</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>2504</v>
+        <v>2499</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>1566</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="449" spans="1:3">
       <c r="A449" s="1" t="s">
-        <v>1567</v>
+        <v>1562</v>
       </c>
       <c r="B449" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>1568</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="450" spans="1:3">
       <c r="A450" s="1" t="s">
-        <v>1569</v>
+        <v>1564</v>
       </c>
       <c r="B450" s="1" t="s">
         <v>227</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>1570</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="1" t="s">
-        <v>1571</v>
+        <v>1566</v>
       </c>
       <c r="B451" s="1" t="s">
         <v>11</v>
@@ -12878,18 +12878,18 @@
     </row>
     <row r="452" spans="1:3">
       <c r="A452" s="1" t="s">
-        <v>1573</v>
+        <v>1568</v>
       </c>
       <c r="B452" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="453" spans="1:3">
       <c r="A453" s="1" t="s">
-        <v>1575</v>
+        <v>1570</v>
       </c>
       <c r="B453" s="1" t="s">
         <v>21</v>
@@ -12900,7 +12900,7 @@
     </row>
     <row r="454" spans="1:3">
       <c r="A454" s="1" t="s">
-        <v>1577</v>
+        <v>1572</v>
       </c>
       <c r="B454" s="1" t="s">
         <v>20</v>
@@ -12911,7 +12911,7 @@
     </row>
     <row r="455" spans="1:3">
       <c r="A455" s="1" t="s">
-        <v>1578</v>
+        <v>1573</v>
       </c>
       <c r="B455" s="1" t="s">
         <v>5</v>
@@ -12922,7 +12922,7 @@
     </row>
     <row r="456" spans="1:3">
       <c r="A456" s="1" t="s">
-        <v>1579</v>
+        <v>1574</v>
       </c>
       <c r="B456" s="1" t="s">
         <v>10</v>
@@ -12933,7 +12933,7 @@
     </row>
     <row r="457" spans="1:3">
       <c r="A457" s="1" t="s">
-        <v>1581</v>
+        <v>1576</v>
       </c>
       <c r="B457" s="1" t="s">
         <v>25</v>
@@ -12944,7 +12944,7 @@
     </row>
     <row r="458" spans="1:3">
       <c r="A458" s="1" t="s">
-        <v>1582</v>
+        <v>1577</v>
       </c>
       <c r="B458" s="1" t="s">
         <v>73</v>
@@ -12955,7 +12955,7 @@
     </row>
     <row r="459" spans="1:3">
       <c r="A459" s="1" t="s">
-        <v>1583</v>
+        <v>1578</v>
       </c>
       <c r="B459" s="1" t="s">
         <v>13</v>
@@ -12966,18 +12966,18 @@
     </row>
     <row r="460" spans="1:3">
       <c r="A460" s="1" t="s">
-        <v>1585</v>
+        <v>1580</v>
       </c>
       <c r="B460" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>1586</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="461" spans="1:3">
       <c r="A461" s="1" t="s">
-        <v>1587</v>
+        <v>1582</v>
       </c>
       <c r="B461" s="1" t="s">
         <v>12</v>
@@ -12988,40 +12988,40 @@
     </row>
     <row r="462" spans="1:3">
       <c r="A462" s="1" t="s">
-        <v>1588</v>
+        <v>1583</v>
       </c>
       <c r="B462" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C462" s="1" t="s">
-        <v>1589</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="463" spans="1:3">
       <c r="A463" s="1" t="s">
-        <v>1590</v>
+        <v>1585</v>
       </c>
       <c r="B463" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>1591</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="464" spans="1:3">
       <c r="A464" s="1" t="s">
-        <v>1592</v>
+        <v>1587</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>1593</v>
+        <v>1588</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>1594</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="465" spans="1:3">
       <c r="A465" s="1" t="s">
-        <v>1595</v>
+        <v>1590</v>
       </c>
       <c r="B465" s="1" t="s">
         <v>77</v>
@@ -13032,7 +13032,7 @@
     </row>
     <row r="466" spans="1:3">
       <c r="A466" s="1" t="s">
-        <v>1596</v>
+        <v>1591</v>
       </c>
       <c r="B466" s="1" t="s">
         <v>74</v>
@@ -13043,18 +13043,18 @@
     </row>
     <row r="467" spans="1:3">
       <c r="A467" s="1" t="s">
-        <v>1597</v>
+        <v>1592</v>
       </c>
       <c r="B467" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>1598</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="468" spans="1:3">
       <c r="A468" s="1" t="s">
-        <v>1599</v>
+        <v>1594</v>
       </c>
       <c r="B468" s="1" t="s">
         <v>141</v>
@@ -13065,106 +13065,106 @@
     </row>
     <row r="469" spans="1:3">
       <c r="A469" s="1" t="s">
-        <v>1600</v>
+        <v>1595</v>
       </c>
       <c r="B469" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>1601</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="470" spans="1:3">
       <c r="A470" s="1" t="s">
-        <v>1602</v>
+        <v>1597</v>
       </c>
       <c r="B470" s="1" t="s">
         <v>142</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>1603</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="471" spans="1:3">
       <c r="A471" s="1" t="s">
-        <v>1604</v>
+        <v>1599</v>
       </c>
       <c r="B471" s="1" t="s">
         <v>139</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>1605</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="472" spans="1:3">
       <c r="A472" s="1" t="s">
-        <v>1606</v>
+        <v>1601</v>
       </c>
       <c r="B472" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>1607</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="473" spans="1:3">
       <c r="A473" s="1" t="s">
-        <v>1608</v>
+        <v>1603</v>
       </c>
       <c r="B473" s="1" t="s">
         <v>143</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>1609</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="474" spans="1:3">
       <c r="A474" s="1" t="s">
-        <v>1610</v>
+        <v>1605</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>1611</v>
+        <v>1606</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>1612</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="475" spans="1:3">
       <c r="A475" s="1" t="s">
-        <v>1613</v>
+        <v>1608</v>
       </c>
       <c r="B475" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C475" s="1" t="s">
-        <v>1614</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="476" spans="1:3">
       <c r="A476" s="1" t="s">
-        <v>1615</v>
+        <v>1610</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>1616</v>
+        <v>1611</v>
       </c>
       <c r="C476" s="1" t="s">
-        <v>1617</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="477" spans="1:3">
       <c r="A477" s="1" t="s">
-        <v>1618</v>
+        <v>1613</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>1619</v>
+        <v>1614</v>
       </c>
       <c r="C477" s="1" t="s">
-        <v>1620</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="478" spans="1:3">
       <c r="A478" s="1" t="s">
-        <v>1621</v>
+        <v>1616</v>
       </c>
       <c r="B478" s="1" t="s">
         <v>3</v>
@@ -13175,406 +13175,406 @@
     </row>
     <row r="479" spans="1:3">
       <c r="A479" s="1" t="s">
-        <v>1622</v>
+        <v>1617</v>
       </c>
       <c r="B479" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>1623</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="480" spans="1:3">
       <c r="A480" s="1" t="s">
-        <v>1624</v>
+        <v>1619</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>1625</v>
+        <v>1620</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>1626</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="481" spans="1:3">
       <c r="A481" s="1" t="s">
-        <v>1627</v>
+        <v>1622</v>
       </c>
       <c r="B481" s="1" t="s">
         <v>1406</v>
       </c>
       <c r="C481" s="1" t="s">
-        <v>1628</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="482" spans="1:3">
       <c r="A482" s="1" t="s">
-        <v>1629</v>
+        <v>1624</v>
       </c>
       <c r="B482" s="1" t="s">
         <v>1408</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>1630</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="483" spans="1:3">
       <c r="A483" s="1" t="s">
-        <v>1631</v>
+        <v>1626</v>
       </c>
       <c r="B483" s="1" t="s">
         <v>1411</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>1632</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="484" spans="1:3">
       <c r="A484" s="1" t="s">
-        <v>1633</v>
+        <v>1628</v>
       </c>
       <c r="B484" s="1" t="s">
         <v>1414</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>1634</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="485" spans="1:3">
       <c r="A485" s="1" t="s">
-        <v>1633</v>
+        <v>1628</v>
       </c>
       <c r="B485" s="1" t="s">
         <v>1414</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>1634</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="486" spans="1:3">
       <c r="A486" s="1" t="s">
-        <v>1635</v>
+        <v>1630</v>
       </c>
       <c r="B486" s="1" t="s">
         <v>1419</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>1636</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="487" spans="1:3">
       <c r="A487" s="1" t="s">
-        <v>1637</v>
+        <v>1632</v>
       </c>
       <c r="B487" s="1" t="s">
         <v>1422</v>
       </c>
       <c r="C487" s="1" t="s">
-        <v>1638</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="488" spans="1:3">
       <c r="A488" s="1" t="s">
-        <v>1637</v>
+        <v>1632</v>
       </c>
       <c r="B488" s="1" t="s">
         <v>1422</v>
       </c>
       <c r="C488" s="1" t="s">
-        <v>1638</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="489" spans="1:3">
       <c r="A489" s="1" t="s">
-        <v>1639</v>
+        <v>1634</v>
       </c>
       <c r="B489" s="1" t="s">
         <v>1426</v>
       </c>
       <c r="C489" s="1" t="s">
-        <v>1640</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="490" spans="1:3">
       <c r="A490" s="1" t="s">
-        <v>1639</v>
+        <v>1634</v>
       </c>
       <c r="B490" s="1" t="s">
         <v>1426</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>1640</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="491" spans="1:3">
       <c r="A491" s="1" t="s">
-        <v>1639</v>
+        <v>1634</v>
       </c>
       <c r="B491" s="1" t="s">
         <v>1426</v>
       </c>
       <c r="C491" s="1" t="s">
-        <v>1640</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="492" spans="1:3">
       <c r="A492" s="1" t="s">
-        <v>1641</v>
+        <v>1636</v>
       </c>
       <c r="B492" s="1" t="s">
         <v>1431</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>1638</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="493" spans="1:3">
       <c r="A493" s="1" t="s">
-        <v>1641</v>
+        <v>1636</v>
       </c>
       <c r="B493" s="1" t="s">
         <v>1431</v>
       </c>
       <c r="C493" s="1" t="s">
-        <v>1638</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="494" spans="1:3">
       <c r="A494" s="1" t="s">
-        <v>1641</v>
+        <v>1636</v>
       </c>
       <c r="B494" s="1" t="s">
         <v>1431</v>
       </c>
       <c r="C494" s="1" t="s">
-        <v>1638</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="495" spans="1:3">
       <c r="A495" s="1" t="s">
-        <v>1642</v>
+        <v>1637</v>
       </c>
       <c r="B495" s="1" t="s">
         <v>1438</v>
       </c>
       <c r="C495" s="1" t="s">
-        <v>1643</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="496" spans="1:3">
       <c r="A496" s="1" t="s">
-        <v>1642</v>
+        <v>1637</v>
       </c>
       <c r="B496" s="1" t="s">
         <v>1438</v>
       </c>
       <c r="C496" s="1" t="s">
-        <v>1643</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="497" spans="1:3">
       <c r="A497" s="1" t="s">
-        <v>1642</v>
+        <v>1637</v>
       </c>
       <c r="B497" s="1" t="s">
         <v>1438</v>
       </c>
       <c r="C497" s="1" t="s">
-        <v>1643</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="498" spans="1:3">
       <c r="A498" s="1" t="s">
-        <v>1644</v>
+        <v>1639</v>
       </c>
       <c r="B498" s="1" t="s">
         <v>1445</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>1643</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="499" spans="1:3">
       <c r="A499" s="1" t="s">
-        <v>1644</v>
+        <v>1639</v>
       </c>
       <c r="B499" s="1" t="s">
         <v>1445</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>1643</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="500" spans="1:3">
       <c r="A500" s="1" t="s">
-        <v>1644</v>
+        <v>1639</v>
       </c>
       <c r="B500" s="1" t="s">
         <v>1445</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>1643</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="501" spans="1:3">
       <c r="A501" s="1" t="s">
-        <v>1645</v>
+        <v>1640</v>
       </c>
       <c r="B501" s="1" t="s">
         <v>1451</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>1646</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="502" spans="1:3">
       <c r="A502" s="1" t="s">
-        <v>1647</v>
+        <v>1642</v>
       </c>
       <c r="B502" s="1" t="s">
         <v>1454</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>1648</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="503" spans="1:3">
       <c r="A503" s="1" t="s">
-        <v>1649</v>
+        <v>1644</v>
       </c>
       <c r="B503" s="1" t="s">
         <v>1457</v>
       </c>
       <c r="C503" s="1" t="s">
-        <v>1650</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="504" spans="1:3">
       <c r="A504" s="1" t="s">
-        <v>1651</v>
+        <v>1646</v>
       </c>
       <c r="B504" s="1" t="s">
         <v>1460</v>
       </c>
       <c r="C504" s="1" t="s">
-        <v>1652</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="505" spans="1:3">
       <c r="A505" s="1" t="s">
-        <v>1653</v>
+        <v>1648</v>
       </c>
       <c r="B505" s="1" t="s">
         <v>1463</v>
       </c>
       <c r="C505" s="1" t="s">
-        <v>1654</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="506" spans="1:3">
       <c r="A506" s="1" t="s">
-        <v>1653</v>
+        <v>1648</v>
       </c>
       <c r="B506" s="1" t="s">
         <v>1463</v>
       </c>
       <c r="C506" s="1" t="s">
-        <v>1654</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="507" spans="1:3">
       <c r="A507" s="1" t="s">
-        <v>1655</v>
+        <v>1650</v>
       </c>
       <c r="B507" s="1" t="s">
         <v>1467</v>
       </c>
       <c r="C507" s="1" t="s">
-        <v>1656</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="508" spans="1:3">
       <c r="A508" s="1" t="s">
-        <v>1657</v>
+        <v>1652</v>
       </c>
       <c r="B508" s="1" t="s">
         <v>1469</v>
       </c>
       <c r="C508" s="1" t="s">
-        <v>1658</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="509" spans="1:3">
       <c r="A509" s="1" t="s">
-        <v>1659</v>
+        <v>1654</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>1471</v>
+        <v>2504</v>
       </c>
       <c r="C509" s="1" t="s">
-        <v>1660</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="510" spans="1:3">
       <c r="A510" s="1" t="s">
-        <v>1661</v>
+        <v>1656</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>1474</v>
+        <v>2503</v>
       </c>
       <c r="C510" s="1" t="s">
-        <v>1662</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="511" spans="1:3">
       <c r="A511" s="1" t="s">
-        <v>1663</v>
+        <v>1658</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="C511" s="1" t="s">
-        <v>1664</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="512" spans="1:3">
       <c r="A512" s="1" t="s">
-        <v>1665</v>
+        <v>1660</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="C512" s="1" t="s">
-        <v>1666</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="513" spans="1:3">
       <c r="A513" s="1" t="s">
-        <v>1667</v>
+        <v>1662</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>1481</v>
+        <v>2500</v>
       </c>
       <c r="C513" s="1" t="s">
-        <v>1668</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="514" spans="1:3">
       <c r="A514" s="1" t="s">
-        <v>1669</v>
+        <v>1664</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>1483</v>
+        <v>2501</v>
       </c>
       <c r="C514" s="1" t="s">
-        <v>1670</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="515" spans="1:3">
       <c r="A515" s="1" t="s">
-        <v>1671</v>
+        <v>1666</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>1486</v>
+        <v>2502</v>
       </c>
       <c r="C515" s="1" t="s">
         <v>262</v>
@@ -13582,227 +13582,227 @@
     </row>
     <row r="516" spans="1:3">
       <c r="A516" s="1" t="s">
-        <v>1672</v>
+        <v>1667</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>1488</v>
+        <v>1483</v>
       </c>
       <c r="C516" s="1" t="s">
-        <v>1673</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="517" spans="1:3">
       <c r="A517" s="1" t="s">
-        <v>1674</v>
+        <v>1669</v>
       </c>
       <c r="B517" s="1" t="s">
-        <v>1491</v>
+        <v>1486</v>
       </c>
       <c r="C517" s="1" t="s">
-        <v>1675</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="518" spans="1:3">
       <c r="A518" s="1" t="s">
-        <v>1676</v>
+        <v>1671</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>1493</v>
+        <v>1488</v>
       </c>
       <c r="C518" s="1" t="s">
-        <v>1677</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="519" spans="1:3">
       <c r="A519" s="1" t="s">
-        <v>1678</v>
+        <v>1673</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>1495</v>
+        <v>1490</v>
       </c>
       <c r="C519" s="1" t="s">
-        <v>1679</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="520" spans="1:3">
       <c r="A520" s="1" t="s">
-        <v>1680</v>
+        <v>1675</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>1498</v>
+        <v>1493</v>
       </c>
       <c r="C520" s="1" t="s">
-        <v>1681</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="521" spans="1:3">
       <c r="A521" s="1" t="s">
-        <v>1682</v>
+        <v>1677</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>1501</v>
+        <v>1496</v>
       </c>
       <c r="C521" s="1" t="s">
-        <v>1683</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="522" spans="1:3">
       <c r="A522" s="1" t="s">
-        <v>1684</v>
+        <v>1679</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>1503</v>
+        <v>1498</v>
       </c>
       <c r="C522" s="1" t="s">
-        <v>1685</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="523" spans="1:3">
       <c r="A523" s="1" t="s">
-        <v>1686</v>
+        <v>1681</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>1505</v>
+        <v>1500</v>
       </c>
       <c r="C523" s="1" t="s">
-        <v>1687</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="524" spans="1:3">
       <c r="A524" s="1" t="s">
-        <v>1688</v>
+        <v>1683</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>1507</v>
+        <v>1502</v>
       </c>
       <c r="C524" s="1" t="s">
-        <v>1689</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="525" spans="1:3">
       <c r="A525" s="1" t="s">
-        <v>1690</v>
+        <v>1685</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>1509</v>
+        <v>1504</v>
       </c>
       <c r="C525" s="1" t="s">
-        <v>1691</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="526" spans="1:3">
       <c r="A526" s="1" t="s">
-        <v>1692</v>
+        <v>1687</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>1511</v>
+        <v>1506</v>
       </c>
       <c r="C526" s="1" t="s">
-        <v>1693</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="527" spans="1:3">
       <c r="A527" s="1" t="s">
-        <v>1694</v>
+        <v>1689</v>
       </c>
       <c r="B527" s="1" t="s">
-        <v>1514</v>
+        <v>1509</v>
       </c>
       <c r="C527" s="1" t="s">
-        <v>1695</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="528" spans="1:3">
       <c r="A528" s="1" t="s">
-        <v>1696</v>
+        <v>1691</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>1517</v>
+        <v>1512</v>
       </c>
       <c r="C528" s="1" t="s">
-        <v>1697</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="529" spans="1:3">
       <c r="A529" s="1" t="s">
-        <v>1698</v>
+        <v>1693</v>
       </c>
       <c r="B529" s="1" t="s">
-        <v>1699</v>
+        <v>1694</v>
       </c>
       <c r="C529" s="1" t="s">
-        <v>1700</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="530" spans="1:3">
       <c r="A530" s="1" t="s">
-        <v>1701</v>
+        <v>1696</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>1702</v>
+        <v>1697</v>
       </c>
       <c r="C530" s="1" t="s">
-        <v>1703</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="531" spans="1:3">
       <c r="A531" s="1" t="s">
-        <v>1704</v>
+        <v>1699</v>
       </c>
       <c r="B531" s="1" t="s">
-        <v>1705</v>
+        <v>1700</v>
       </c>
       <c r="C531" s="1" t="s">
-        <v>1706</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="532" spans="1:3">
       <c r="A532" s="1" t="s">
-        <v>1707</v>
+        <v>1702</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
       <c r="C532" s="1" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="533" spans="1:3">
       <c r="A533" s="1" t="s">
-        <v>1710</v>
+        <v>1705</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>1711</v>
+        <v>1706</v>
       </c>
       <c r="C533" s="1" t="s">
-        <v>1712</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="534" spans="1:3">
       <c r="A534" s="1" t="s">
-        <v>1713</v>
+        <v>1708</v>
       </c>
       <c r="B534" s="1" t="s">
-        <v>1714</v>
+        <v>1709</v>
       </c>
       <c r="C534" s="1" t="s">
-        <v>1715</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="535" spans="1:3">
       <c r="A535" s="1" t="s">
-        <v>1716</v>
+        <v>1711</v>
       </c>
       <c r="B535" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C535" s="1" t="s">
-        <v>1717</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="536" spans="1:3">
       <c r="A536" s="1" t="s">
-        <v>1718</v>
+        <v>1713</v>
       </c>
       <c r="B536" s="1" t="s">
         <v>26</v>
@@ -13813,7 +13813,7 @@
     </row>
     <row r="537" spans="1:3">
       <c r="A537" s="1" t="s">
-        <v>1719</v>
+        <v>1714</v>
       </c>
       <c r="B537" s="1" t="s">
         <v>58</v>
@@ -13824,7 +13824,7 @@
     </row>
     <row r="538" spans="1:3">
       <c r="A538" s="1" t="s">
-        <v>1720</v>
+        <v>1715</v>
       </c>
       <c r="B538" s="1" t="s">
         <v>65</v>
@@ -13835,18 +13835,18 @@
     </row>
     <row r="539" spans="1:3">
       <c r="A539" s="1" t="s">
-        <v>1721</v>
+        <v>1716</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>1722</v>
+        <v>1717</v>
       </c>
       <c r="C539" s="1" t="s">
-        <v>1723</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="540" spans="1:3">
       <c r="A540" s="1" t="s">
-        <v>1724</v>
+        <v>1719</v>
       </c>
       <c r="B540" s="1" t="s">
         <v>51</v>
@@ -13857,7 +13857,7 @@
     </row>
     <row r="541" spans="1:3">
       <c r="A541" s="1" t="s">
-        <v>1725</v>
+        <v>1720</v>
       </c>
       <c r="B541" s="1" t="s">
         <v>223</v>
@@ -13868,18 +13868,18 @@
     </row>
     <row r="542" spans="1:3">
       <c r="A542" s="1" t="s">
-        <v>1726</v>
+        <v>1721</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>1727</v>
+        <v>1722</v>
       </c>
       <c r="C542" s="1" t="s">
-        <v>1728</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="543" spans="1:3">
       <c r="A543" s="1" t="s">
-        <v>1729</v>
+        <v>1724</v>
       </c>
       <c r="B543" s="1" t="s">
         <v>35</v>
@@ -13890,7 +13890,7 @@
     </row>
     <row r="544" spans="1:3">
       <c r="A544" s="1" t="s">
-        <v>1730</v>
+        <v>1725</v>
       </c>
       <c r="B544" s="1" t="s">
         <v>50</v>
@@ -13901,7 +13901,7 @@
     </row>
     <row r="545" spans="1:3">
       <c r="A545" s="1" t="s">
-        <v>1731</v>
+        <v>1726</v>
       </c>
       <c r="B545" s="1" t="s">
         <v>57</v>
@@ -13912,7 +13912,7 @@
     </row>
     <row r="546" spans="1:3">
       <c r="A546" s="1" t="s">
-        <v>1732</v>
+        <v>1727</v>
       </c>
       <c r="B546" s="1" t="s">
         <v>94</v>
@@ -13923,7 +13923,7 @@
     </row>
     <row r="547" spans="1:3">
       <c r="A547" s="1" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
       <c r="B547" s="1" t="s">
         <v>181</v>
@@ -13934,51 +13934,51 @@
     </row>
     <row r="548" spans="1:3">
       <c r="A548" s="1" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>1735</v>
+        <v>1730</v>
       </c>
       <c r="C548" s="1" t="s">
-        <v>1736</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="549" spans="1:3">
       <c r="A549" s="1" t="s">
-        <v>1737</v>
+        <v>1732</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="C549" s="1" t="s">
-        <v>1739</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="550" spans="1:3">
       <c r="A550" s="1" t="s">
-        <v>1740</v>
+        <v>1735</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>1741</v>
+        <v>1736</v>
       </c>
       <c r="C550" s="1" t="s">
-        <v>1742</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="551" spans="1:3">
       <c r="A551" s="1" t="s">
-        <v>1743</v>
+        <v>1738</v>
       </c>
       <c r="B551" s="1" t="s">
-        <v>1744</v>
+        <v>1739</v>
       </c>
       <c r="C551" s="1" t="s">
-        <v>1745</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="552" spans="1:3">
       <c r="A552" s="1" t="s">
-        <v>1746</v>
+        <v>1741</v>
       </c>
       <c r="B552" s="1" t="s">
         <v>126</v>
@@ -13989,7 +13989,7 @@
     </row>
     <row r="553" spans="1:3">
       <c r="A553" s="1" t="s">
-        <v>1747</v>
+        <v>1742</v>
       </c>
       <c r="B553" s="1" t="s">
         <v>59</v>
@@ -14000,7 +14000,7 @@
     </row>
     <row r="554" spans="1:3">
       <c r="A554" s="1" t="s">
-        <v>1748</v>
+        <v>1743</v>
       </c>
       <c r="B554" s="1" t="s">
         <v>95</v>
@@ -14011,18 +14011,18 @@
     </row>
     <row r="555" spans="1:3">
       <c r="A555" s="1" t="s">
-        <v>1749</v>
+        <v>1744</v>
       </c>
       <c r="B555" s="1" t="s">
-        <v>1750</v>
+        <v>1745</v>
       </c>
       <c r="C555" s="1" t="s">
-        <v>1751</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="556" spans="1:3">
       <c r="A556" s="1" t="s">
-        <v>1752</v>
+        <v>1747</v>
       </c>
       <c r="B556" s="1" t="s">
         <v>82</v>
@@ -14033,7 +14033,7 @@
     </row>
     <row r="557" spans="1:3">
       <c r="A557" s="1" t="s">
-        <v>1753</v>
+        <v>1748</v>
       </c>
       <c r="B557" s="1" t="s">
         <v>129</v>
@@ -14044,7 +14044,7 @@
     </row>
     <row r="558" spans="1:3">
       <c r="A558" s="1" t="s">
-        <v>1754</v>
+        <v>1749</v>
       </c>
       <c r="B558" s="1" t="s">
         <v>66</v>
@@ -14055,18 +14055,18 @@
     </row>
     <row r="559" spans="1:3">
       <c r="A559" s="1" t="s">
-        <v>1755</v>
+        <v>1750</v>
       </c>
       <c r="B559" s="1" t="s">
-        <v>1756</v>
+        <v>1751</v>
       </c>
       <c r="C559" s="1" t="s">
-        <v>1757</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="560" spans="1:3">
       <c r="A560" s="1" t="s">
-        <v>1758</v>
+        <v>1753</v>
       </c>
       <c r="B560" s="1" t="s">
         <v>93</v>
@@ -14077,7 +14077,7 @@
     </row>
     <row r="561" spans="1:3">
       <c r="A561" s="1" t="s">
-        <v>1759</v>
+        <v>1754</v>
       </c>
       <c r="B561" s="1" t="s">
         <v>130</v>
@@ -14088,7 +14088,7 @@
     </row>
     <row r="562" spans="1:3">
       <c r="A562" s="1" t="s">
-        <v>1760</v>
+        <v>1755</v>
       </c>
       <c r="B562" s="1" t="s">
         <v>54</v>
@@ -14099,7 +14099,7 @@
     </row>
     <row r="563" spans="1:3">
       <c r="A563" s="1" t="s">
-        <v>1761</v>
+        <v>1756</v>
       </c>
       <c r="B563" s="1" t="s">
         <v>53</v>
@@ -14110,7 +14110,7 @@
     </row>
     <row r="564" spans="1:3">
       <c r="A564" s="1" t="s">
-        <v>1762</v>
+        <v>1757</v>
       </c>
       <c r="B564" s="1" t="s">
         <v>163</v>
@@ -14121,51 +14121,51 @@
     </row>
     <row r="565" spans="1:3">
       <c r="A565" s="1" t="s">
-        <v>1763</v>
+        <v>1758</v>
       </c>
       <c r="B565" s="1" t="s">
-        <v>1764</v>
+        <v>1759</v>
       </c>
       <c r="C565" s="1" t="s">
-        <v>1765</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="566" spans="1:3">
       <c r="A566" s="1" t="s">
-        <v>1766</v>
+        <v>1761</v>
       </c>
       <c r="B566" s="1" t="s">
-        <v>1767</v>
+        <v>1762</v>
       </c>
       <c r="C566" s="1" t="s">
-        <v>1768</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="567" spans="1:3">
       <c r="A567" s="1" t="s">
-        <v>1769</v>
+        <v>1764</v>
       </c>
       <c r="B567" s="1" t="s">
-        <v>1770</v>
+        <v>1765</v>
       </c>
       <c r="C567" s="1" t="s">
-        <v>1771</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="568" spans="1:3">
       <c r="A568" s="1" t="s">
-        <v>1772</v>
+        <v>1767</v>
       </c>
       <c r="B568" s="1" t="s">
-        <v>1773</v>
+        <v>1768</v>
       </c>
       <c r="C568" s="1" t="s">
-        <v>1774</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="569" spans="1:3">
       <c r="A569" s="1" t="s">
-        <v>1775</v>
+        <v>1770</v>
       </c>
       <c r="B569" s="1" t="s">
         <v>55</v>
@@ -14176,18 +14176,18 @@
     </row>
     <row r="570" spans="1:3">
       <c r="A570" s="1" t="s">
-        <v>1776</v>
+        <v>1771</v>
       </c>
       <c r="B570" s="1" t="s">
-        <v>1777</v>
+        <v>1772</v>
       </c>
       <c r="C570" s="1" t="s">
-        <v>1778</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="571" spans="1:3">
       <c r="A571" s="1" t="s">
-        <v>1779</v>
+        <v>1774</v>
       </c>
       <c r="B571" s="1" t="s">
         <v>157</v>
@@ -14198,7 +14198,7 @@
     </row>
     <row r="572" spans="1:3">
       <c r="A572" s="1" t="s">
-        <v>1780</v>
+        <v>1775</v>
       </c>
       <c r="B572" s="1" t="s">
         <v>156</v>
@@ -14209,7 +14209,7 @@
     </row>
     <row r="573" spans="1:3">
       <c r="A573" s="1" t="s">
-        <v>1781</v>
+        <v>1776</v>
       </c>
       <c r="B573" s="1" t="s">
         <v>158</v>
@@ -14220,7 +14220,7 @@
     </row>
     <row r="574" spans="1:3">
       <c r="A574" s="1" t="s">
-        <v>1782</v>
+        <v>1777</v>
       </c>
       <c r="B574" s="1" t="s">
         <v>159</v>
@@ -14231,7 +14231,7 @@
     </row>
     <row r="575" spans="1:3">
       <c r="A575" s="1" t="s">
-        <v>1783</v>
+        <v>1778</v>
       </c>
       <c r="B575" s="1" t="s">
         <v>160</v>
@@ -14242,18 +14242,18 @@
     </row>
     <row r="576" spans="1:3">
       <c r="A576" s="1" t="s">
-        <v>1784</v>
+        <v>1779</v>
       </c>
       <c r="B576" s="1" t="s">
-        <v>1785</v>
+        <v>1780</v>
       </c>
       <c r="C576" s="1" t="s">
-        <v>1786</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="577" spans="1:3">
       <c r="A577" s="1" t="s">
-        <v>1787</v>
+        <v>1782</v>
       </c>
       <c r="B577" s="1" t="s">
         <v>161</v>
@@ -14264,7 +14264,7 @@
     </row>
     <row r="578" spans="1:3">
       <c r="A578" s="1" t="s">
-        <v>1788</v>
+        <v>1783</v>
       </c>
       <c r="B578" s="1" t="s">
         <v>123</v>
@@ -14275,7 +14275,7 @@
     </row>
     <row r="579" spans="1:3">
       <c r="A579" s="1" t="s">
-        <v>1789</v>
+        <v>1784</v>
       </c>
       <c r="B579" s="1" t="s">
         <v>125</v>
@@ -14286,7 +14286,7 @@
     </row>
     <row r="580" spans="1:3">
       <c r="A580" s="1" t="s">
-        <v>1790</v>
+        <v>1785</v>
       </c>
       <c r="B580" s="1" t="s">
         <v>37</v>
@@ -14297,7 +14297,7 @@
     </row>
     <row r="581" spans="1:3">
       <c r="A581" s="1" t="s">
-        <v>1791</v>
+        <v>1786</v>
       </c>
       <c r="B581" s="1" t="s">
         <v>162</v>
@@ -14308,7 +14308,7 @@
     </row>
     <row r="582" spans="1:3">
       <c r="A582" s="1" t="s">
-        <v>1792</v>
+        <v>1787</v>
       </c>
       <c r="B582" s="1" t="s">
         <v>60</v>
@@ -14319,7 +14319,7 @@
     </row>
     <row r="583" spans="1:3">
       <c r="A583" s="1" t="s">
-        <v>1793</v>
+        <v>1788</v>
       </c>
       <c r="B583" s="1" t="s">
         <v>61</v>
@@ -14330,40 +14330,40 @@
     </row>
     <row r="584" spans="1:3">
       <c r="A584" s="1" t="s">
-        <v>1794</v>
+        <v>1789</v>
       </c>
       <c r="B584" s="1" t="s">
-        <v>1795</v>
+        <v>1790</v>
       </c>
       <c r="C584" s="1" t="s">
-        <v>1796</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="585" spans="1:3">
       <c r="A585" s="1" t="s">
-        <v>1797</v>
+        <v>1792</v>
       </c>
       <c r="B585" s="1" t="s">
-        <v>1798</v>
+        <v>1793</v>
       </c>
       <c r="C585" s="1" t="s">
-        <v>1799</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="586" spans="1:3">
       <c r="A586" s="1" t="s">
-        <v>1800</v>
+        <v>1795</v>
       </c>
       <c r="B586" s="1" t="s">
-        <v>1801</v>
+        <v>1796</v>
       </c>
       <c r="C586" s="1" t="s">
-        <v>1802</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="587" spans="1:3">
       <c r="A587" s="1" t="s">
-        <v>1803</v>
+        <v>1798</v>
       </c>
       <c r="B587" s="1" t="s">
         <v>155</v>
@@ -14374,18 +14374,18 @@
     </row>
     <row r="588" spans="1:3">
       <c r="A588" s="1" t="s">
-        <v>1804</v>
+        <v>1799</v>
       </c>
       <c r="B588" s="1" t="s">
-        <v>1805</v>
+        <v>1800</v>
       </c>
       <c r="C588" s="1" t="s">
-        <v>1806</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="589" spans="1:3">
       <c r="A589" s="1" t="s">
-        <v>1807</v>
+        <v>1802</v>
       </c>
       <c r="B589" s="1" t="s">
         <v>67</v>
@@ -14396,7 +14396,7 @@
     </row>
     <row r="590" spans="1:3">
       <c r="A590" s="1" t="s">
-        <v>1808</v>
+        <v>1803</v>
       </c>
       <c r="B590" s="1" t="s">
         <v>124</v>
@@ -14407,7 +14407,7 @@
     </row>
     <row r="591" spans="1:3">
       <c r="A591" s="1" t="s">
-        <v>1809</v>
+        <v>1804</v>
       </c>
       <c r="B591" s="1" t="s">
         <v>127</v>
@@ -14418,7 +14418,7 @@
     </row>
     <row r="592" spans="1:3">
       <c r="A592" s="1" t="s">
-        <v>1810</v>
+        <v>1805</v>
       </c>
       <c r="B592" s="1" t="s">
         <v>56</v>
@@ -14429,7 +14429,7 @@
     </row>
     <row r="593" spans="1:3">
       <c r="A593" s="1" t="s">
-        <v>1811</v>
+        <v>1806</v>
       </c>
       <c r="B593" s="1" t="s">
         <v>52</v>
@@ -14440,18 +14440,18 @@
     </row>
     <row r="594" spans="1:3">
       <c r="A594" s="1" t="s">
-        <v>1812</v>
+        <v>1807</v>
       </c>
       <c r="B594" s="1" t="s">
-        <v>1813</v>
+        <v>1808</v>
       </c>
       <c r="C594" s="1" t="s">
-        <v>1814</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="595" spans="1:3">
       <c r="A595" s="1" t="s">
-        <v>1815</v>
+        <v>1810</v>
       </c>
       <c r="B595" s="1" t="s">
         <v>131</v>
@@ -14462,7 +14462,7 @@
     </row>
     <row r="596" spans="1:3">
       <c r="A596" s="1" t="s">
-        <v>1816</v>
+        <v>1811</v>
       </c>
       <c r="B596" s="1" t="s">
         <v>68</v>
@@ -14473,7 +14473,7 @@
     </row>
     <row r="597" spans="1:3">
       <c r="A597" s="1" t="s">
-        <v>1817</v>
+        <v>1812</v>
       </c>
       <c r="B597" s="1" t="s">
         <v>148</v>
@@ -14484,7 +14484,7 @@
     </row>
     <row r="598" spans="1:3">
       <c r="A598" s="1" t="s">
-        <v>1818</v>
+        <v>1813</v>
       </c>
       <c r="B598" s="1" t="s">
         <v>132</v>
@@ -14495,18 +14495,18 @@
     </row>
     <row r="599" spans="1:3">
       <c r="A599" s="1" t="s">
-        <v>1819</v>
+        <v>1814</v>
       </c>
       <c r="B599" s="1" t="s">
-        <v>1820</v>
+        <v>1815</v>
       </c>
       <c r="C599" s="1" t="s">
-        <v>1821</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="600" spans="1:3">
       <c r="A600" s="1" t="s">
-        <v>1822</v>
+        <v>1817</v>
       </c>
       <c r="B600" s="1" t="s">
         <v>32</v>
@@ -14517,18 +14517,18 @@
     </row>
     <row r="601" spans="1:3">
       <c r="A601" s="1" t="s">
-        <v>1823</v>
+        <v>1818</v>
       </c>
       <c r="B601" s="1" t="s">
-        <v>1824</v>
+        <v>1819</v>
       </c>
       <c r="C601" s="1" t="s">
-        <v>1825</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="602" spans="1:3">
       <c r="A602" s="1" t="s">
-        <v>1826</v>
+        <v>1821</v>
       </c>
       <c r="B602" s="1" t="s">
         <v>48</v>
@@ -14539,7 +14539,7 @@
     </row>
     <row r="603" spans="1:3">
       <c r="A603" s="1" t="s">
-        <v>1827</v>
+        <v>1822</v>
       </c>
       <c r="B603" s="1" t="s">
         <v>222</v>
@@ -14550,106 +14550,106 @@
     </row>
     <row r="604" spans="1:3">
       <c r="A604" s="1" t="s">
-        <v>1828</v>
+        <v>1823</v>
       </c>
       <c r="B604" s="1" t="s">
-        <v>1829</v>
+        <v>1824</v>
       </c>
       <c r="C604" s="1" t="s">
-        <v>1830</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="605" spans="1:3">
       <c r="A605" s="1" t="s">
-        <v>1831</v>
+        <v>1826</v>
       </c>
       <c r="B605" s="1" t="s">
-        <v>1832</v>
+        <v>1827</v>
       </c>
       <c r="C605" s="1" t="s">
-        <v>1833</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="606" spans="1:3">
       <c r="A606" s="1" t="s">
-        <v>1834</v>
+        <v>1829</v>
       </c>
       <c r="B606" s="1" t="s">
-        <v>1835</v>
+        <v>1830</v>
       </c>
       <c r="C606" s="1" t="s">
-        <v>1836</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="607" spans="1:3">
       <c r="A607" s="1" t="s">
-        <v>1837</v>
+        <v>1832</v>
       </c>
       <c r="B607" s="1" t="s">
-        <v>1838</v>
+        <v>1833</v>
       </c>
       <c r="C607" s="1" t="s">
-        <v>1839</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="608" spans="1:3">
       <c r="A608" s="1" t="s">
-        <v>1840</v>
+        <v>1835</v>
       </c>
       <c r="B608" s="1" t="s">
-        <v>1841</v>
+        <v>1836</v>
       </c>
       <c r="C608" s="1" t="s">
-        <v>1842</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="609" spans="1:3">
       <c r="A609" s="1" t="s">
-        <v>1843</v>
+        <v>1838</v>
       </c>
       <c r="B609" s="1" t="s">
-        <v>1844</v>
+        <v>1839</v>
       </c>
       <c r="C609" s="1" t="s">
-        <v>1845</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="610" spans="1:3">
       <c r="A610" s="1" t="s">
-        <v>1846</v>
+        <v>1841</v>
       </c>
       <c r="B610" s="1" t="s">
-        <v>1847</v>
+        <v>1842</v>
       </c>
       <c r="C610" s="1" t="s">
-        <v>1848</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="611" spans="1:3">
       <c r="A611" s="1" t="s">
-        <v>1849</v>
+        <v>1844</v>
       </c>
       <c r="B611" s="1" t="s">
-        <v>1850</v>
+        <v>1845</v>
       </c>
       <c r="C611" s="1" t="s">
-        <v>1851</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="612" spans="1:3">
       <c r="A612" s="1" t="s">
-        <v>1852</v>
+        <v>1847</v>
       </c>
       <c r="B612" s="1" t="s">
-        <v>1853</v>
+        <v>1848</v>
       </c>
       <c r="C612" s="1" t="s">
-        <v>1854</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="613" spans="1:3">
       <c r="A613" s="1" t="s">
-        <v>1855</v>
+        <v>1850</v>
       </c>
       <c r="B613" s="1" t="s">
         <v>15</v>
@@ -14660,62 +14660,62 @@
     </row>
     <row r="614" spans="1:3">
       <c r="A614" s="1" t="s">
-        <v>1856</v>
+        <v>1851</v>
       </c>
       <c r="B614" s="1" t="s">
-        <v>1857</v>
+        <v>1852</v>
       </c>
       <c r="C614" s="1" t="s">
-        <v>1858</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="615" spans="1:3">
       <c r="A615" s="1" t="s">
-        <v>1859</v>
+        <v>1854</v>
       </c>
       <c r="B615" s="1" t="s">
-        <v>1860</v>
+        <v>1855</v>
       </c>
       <c r="C615" s="1" t="s">
-        <v>1861</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="616" spans="1:3">
       <c r="A616" s="1" t="s">
-        <v>1862</v>
+        <v>1857</v>
       </c>
       <c r="B616" s="1" t="s">
-        <v>1863</v>
+        <v>1858</v>
       </c>
       <c r="C616" s="1" t="s">
-        <v>1864</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="617" spans="1:3">
       <c r="A617" s="1" t="s">
-        <v>1865</v>
+        <v>1860</v>
       </c>
       <c r="B617" s="1" t="s">
-        <v>1866</v>
+        <v>1861</v>
       </c>
       <c r="C617" s="1" t="s">
-        <v>1867</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="618" spans="1:3">
       <c r="A618" s="1" t="s">
-        <v>1868</v>
+        <v>1863</v>
       </c>
       <c r="B618" s="1" t="s">
-        <v>1869</v>
+        <v>1864</v>
       </c>
       <c r="C618" s="1" t="s">
-        <v>1870</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="619" spans="1:3">
       <c r="A619" s="1" t="s">
-        <v>1871</v>
+        <v>1866</v>
       </c>
       <c r="B619" s="1" t="s">
         <v>31</v>
@@ -14726,73 +14726,73 @@
     </row>
     <row r="620" spans="1:3">
       <c r="A620" s="1" t="s">
-        <v>1872</v>
+        <v>1867</v>
       </c>
       <c r="B620" s="1" t="s">
-        <v>1873</v>
+        <v>1868</v>
       </c>
       <c r="C620" s="1" t="s">
-        <v>1874</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="621" spans="1:3">
       <c r="A621" s="1" t="s">
-        <v>1875</v>
+        <v>1870</v>
       </c>
       <c r="B621" s="1" t="s">
-        <v>1876</v>
+        <v>1871</v>
       </c>
       <c r="C621" s="1" t="s">
-        <v>1877</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="622" spans="1:3">
       <c r="A622" s="1" t="s">
-        <v>1878</v>
+        <v>1873</v>
       </c>
       <c r="B622" s="1" t="s">
-        <v>1879</v>
+        <v>1874</v>
       </c>
       <c r="C622" s="1" t="s">
-        <v>1880</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="623" spans="1:3">
       <c r="A623" s="1" t="s">
-        <v>1881</v>
+        <v>1876</v>
       </c>
       <c r="B623" s="1" t="s">
-        <v>1882</v>
+        <v>1877</v>
       </c>
       <c r="C623" s="1" t="s">
-        <v>1883</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="624" spans="1:3">
       <c r="A624" s="1" t="s">
-        <v>1884</v>
+        <v>1879</v>
       </c>
       <c r="B624" s="1" t="s">
-        <v>1885</v>
+        <v>1880</v>
       </c>
       <c r="C624" s="1" t="s">
-        <v>1886</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="625" spans="1:3">
       <c r="A625" s="1" t="s">
-        <v>1887</v>
+        <v>1882</v>
       </c>
       <c r="B625" s="1" t="s">
-        <v>1888</v>
+        <v>1883</v>
       </c>
       <c r="C625" s="1" t="s">
-        <v>1889</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="626" spans="1:3">
       <c r="A626" s="1" t="s">
-        <v>1890</v>
+        <v>1885</v>
       </c>
       <c r="B626" s="1" t="s">
         <v>170</v>
@@ -14803,7 +14803,7 @@
     </row>
     <row r="627" spans="1:3">
       <c r="A627" s="1" t="s">
-        <v>1891</v>
+        <v>1886</v>
       </c>
       <c r="B627" s="1" t="s">
         <v>171</v>
@@ -14814,7 +14814,7 @@
     </row>
     <row r="628" spans="1:3">
       <c r="A628" s="1" t="s">
-        <v>1892</v>
+        <v>1887</v>
       </c>
       <c r="B628" s="1" t="s">
         <v>91</v>
@@ -14825,7 +14825,7 @@
     </row>
     <row r="629" spans="1:3">
       <c r="A629" s="1" t="s">
-        <v>1893</v>
+        <v>1888</v>
       </c>
       <c r="B629" s="1" t="s">
         <v>85</v>
@@ -14836,7 +14836,7 @@
     </row>
     <row r="630" spans="1:3">
       <c r="A630" s="1" t="s">
-        <v>1894</v>
+        <v>1889</v>
       </c>
       <c r="B630" s="1" t="s">
         <v>174</v>
@@ -14847,18 +14847,18 @@
     </row>
     <row r="631" spans="1:3">
       <c r="A631" s="1" t="s">
-        <v>1895</v>
+        <v>1890</v>
       </c>
       <c r="B631" s="1" t="s">
-        <v>1896</v>
+        <v>1891</v>
       </c>
       <c r="C631" s="1" t="s">
-        <v>1897</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="632" spans="1:3">
       <c r="A632" s="1" t="s">
-        <v>1898</v>
+        <v>1893</v>
       </c>
       <c r="B632" s="1" t="s">
         <v>198</v>
@@ -14869,29 +14869,29 @@
     </row>
     <row r="633" spans="1:3">
       <c r="A633" s="1" t="s">
-        <v>1899</v>
+        <v>1894</v>
       </c>
       <c r="B633" s="1" t="s">
-        <v>1900</v>
+        <v>1895</v>
       </c>
       <c r="C633" s="1" t="s">
-        <v>1901</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="634" spans="1:3">
       <c r="A634" s="1" t="s">
-        <v>1902</v>
+        <v>1897</v>
       </c>
       <c r="B634" s="1" t="s">
-        <v>1903</v>
+        <v>1898</v>
       </c>
       <c r="C634" s="1" t="s">
-        <v>1904</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="635" spans="1:3">
       <c r="A635" s="1" t="s">
-        <v>1905</v>
+        <v>1900</v>
       </c>
       <c r="B635" s="1" t="s">
         <v>86</v>
@@ -14902,7 +14902,7 @@
     </row>
     <row r="636" spans="1:3">
       <c r="A636" s="1" t="s">
-        <v>1906</v>
+        <v>1901</v>
       </c>
       <c r="B636" s="1" t="s">
         <v>105</v>
@@ -14913,7 +14913,7 @@
     </row>
     <row r="637" spans="1:3">
       <c r="A637" s="1" t="s">
-        <v>1907</v>
+        <v>1902</v>
       </c>
       <c r="B637" s="1" t="s">
         <v>87</v>
@@ -14924,7 +14924,7 @@
     </row>
     <row r="638" spans="1:3">
       <c r="A638" s="1" t="s">
-        <v>1908</v>
+        <v>1903</v>
       </c>
       <c r="B638" s="1" t="s">
         <v>106</v>
@@ -14935,18 +14935,18 @@
     </row>
     <row r="639" spans="1:3">
       <c r="A639" s="1" t="s">
-        <v>1909</v>
+        <v>1904</v>
       </c>
       <c r="B639" s="1" t="s">
-        <v>1910</v>
+        <v>1905</v>
       </c>
       <c r="C639" s="1" t="s">
-        <v>1911</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="640" spans="1:3">
       <c r="A640" s="1" t="s">
-        <v>1912</v>
+        <v>1907</v>
       </c>
       <c r="B640" s="1" t="s">
         <v>107</v>
@@ -14957,7 +14957,7 @@
     </row>
     <row r="641" spans="1:3">
       <c r="A641" s="1" t="s">
-        <v>1913</v>
+        <v>1908</v>
       </c>
       <c r="B641" s="1" t="s">
         <v>203</v>
@@ -14968,7 +14968,7 @@
     </row>
     <row r="642" spans="1:3">
       <c r="A642" s="1" t="s">
-        <v>1914</v>
+        <v>1909</v>
       </c>
       <c r="B642" s="1" t="s">
         <v>168</v>
@@ -14979,7 +14979,7 @@
     </row>
     <row r="643" spans="1:3">
       <c r="A643" s="1" t="s">
-        <v>1915</v>
+        <v>1910</v>
       </c>
       <c r="B643" s="1" t="s">
         <v>84</v>
@@ -14990,7 +14990,7 @@
     </row>
     <row r="644" spans="1:3">
       <c r="A644" s="1" t="s">
-        <v>1916</v>
+        <v>1911</v>
       </c>
       <c r="B644" s="1" t="s">
         <v>211</v>
@@ -15001,7 +15001,7 @@
     </row>
     <row r="645" spans="1:3">
       <c r="A645" s="1" t="s">
-        <v>1917</v>
+        <v>1912</v>
       </c>
       <c r="B645" s="1" t="s">
         <v>41</v>
@@ -15012,18 +15012,18 @@
     </row>
     <row r="646" spans="1:3">
       <c r="A646" s="1" t="s">
-        <v>1918</v>
+        <v>1913</v>
       </c>
       <c r="B646" s="1" t="s">
-        <v>1919</v>
+        <v>1914</v>
       </c>
       <c r="C646" s="1" t="s">
-        <v>1920</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="647" spans="1:3">
       <c r="A647" s="1" t="s">
-        <v>1921</v>
+        <v>1916</v>
       </c>
       <c r="B647" s="1" t="s">
         <v>97</v>
@@ -15034,7 +15034,7 @@
     </row>
     <row r="648" spans="1:3">
       <c r="A648" s="1" t="s">
-        <v>1922</v>
+        <v>1917</v>
       </c>
       <c r="B648" s="1" t="s">
         <v>145</v>
@@ -15045,128 +15045,128 @@
     </row>
     <row r="649" spans="1:3">
       <c r="A649" s="1" t="s">
-        <v>1923</v>
+        <v>1918</v>
       </c>
       <c r="B649" s="1" t="s">
-        <v>1924</v>
+        <v>1919</v>
       </c>
       <c r="C649" s="1" t="s">
-        <v>1925</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="650" spans="1:3">
       <c r="A650" s="1" t="s">
-        <v>1926</v>
+        <v>1921</v>
       </c>
       <c r="B650" s="1" t="s">
-        <v>1927</v>
+        <v>1922</v>
       </c>
       <c r="C650" s="1" t="s">
-        <v>1928</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="651" spans="1:3">
       <c r="A651" s="1" t="s">
-        <v>1929</v>
+        <v>1924</v>
       </c>
       <c r="B651" s="1" t="s">
-        <v>1930</v>
+        <v>1925</v>
       </c>
       <c r="C651" s="1" t="s">
-        <v>1931</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="652" spans="1:3">
       <c r="A652" s="1" t="s">
-        <v>1932</v>
+        <v>1927</v>
       </c>
       <c r="B652" s="1" t="s">
-        <v>1933</v>
+        <v>1928</v>
       </c>
       <c r="C652" s="1" t="s">
-        <v>1934</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="653" spans="1:3">
       <c r="A653" s="1" t="s">
-        <v>1935</v>
+        <v>1930</v>
       </c>
       <c r="B653" s="1" t="s">
-        <v>1936</v>
+        <v>1931</v>
       </c>
       <c r="C653" s="1" t="s">
-        <v>1937</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="654" spans="1:3">
       <c r="A654" s="1" t="s">
-        <v>1938</v>
+        <v>1933</v>
       </c>
       <c r="B654" s="1" t="s">
-        <v>1939</v>
+        <v>1934</v>
       </c>
       <c r="C654" s="1" t="s">
-        <v>1940</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="655" spans="1:3">
       <c r="A655" s="1" t="s">
-        <v>1941</v>
+        <v>1936</v>
       </c>
       <c r="B655" s="1" t="s">
-        <v>1942</v>
+        <v>1937</v>
       </c>
       <c r="C655" s="1" t="s">
-        <v>1943</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="656" spans="1:3">
       <c r="A656" s="1" t="s">
-        <v>1944</v>
+        <v>1939</v>
       </c>
       <c r="B656" s="1" t="s">
-        <v>1945</v>
+        <v>1940</v>
       </c>
       <c r="C656" s="1" t="s">
-        <v>1946</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="657" spans="1:3">
       <c r="A657" s="1" t="s">
-        <v>1947</v>
+        <v>1942</v>
       </c>
       <c r="B657" s="1" t="s">
-        <v>1948</v>
+        <v>1943</v>
       </c>
       <c r="C657" s="1" t="s">
-        <v>1949</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="658" spans="1:3">
       <c r="A658" s="1" t="s">
-        <v>1950</v>
+        <v>1945</v>
       </c>
       <c r="B658" s="1" t="s">
-        <v>1951</v>
+        <v>1946</v>
       </c>
       <c r="C658" s="1" t="s">
-        <v>1952</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="659" spans="1:3">
       <c r="A659" s="1" t="s">
-        <v>1953</v>
+        <v>1948</v>
       </c>
       <c r="B659" s="1" t="s">
-        <v>1954</v>
+        <v>1949</v>
       </c>
       <c r="C659" s="1" t="s">
-        <v>1955</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="660" spans="1:3">
       <c r="A660" s="1" t="s">
-        <v>1956</v>
+        <v>1951</v>
       </c>
       <c r="B660" s="1" t="s">
         <v>70</v>
@@ -15177,18 +15177,18 @@
     </row>
     <row r="661" spans="1:3">
       <c r="A661" s="1" t="s">
-        <v>1957</v>
+        <v>1952</v>
       </c>
       <c r="B661" s="1" t="s">
-        <v>1958</v>
+        <v>1953</v>
       </c>
       <c r="C661" s="1" t="s">
-        <v>1959</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="662" spans="1:3">
       <c r="A662" s="1" t="s">
-        <v>1960</v>
+        <v>1955</v>
       </c>
       <c r="B662" s="1" t="s">
         <v>69</v>
@@ -15199,7 +15199,7 @@
     </row>
     <row r="663" spans="1:3">
       <c r="A663" s="1" t="s">
-        <v>1961</v>
+        <v>1956</v>
       </c>
       <c r="B663" s="1" t="s">
         <v>137</v>
@@ -15210,62 +15210,62 @@
     </row>
     <row r="664" spans="1:3">
       <c r="A664" s="1" t="s">
-        <v>1962</v>
+        <v>1957</v>
       </c>
       <c r="B664" s="1" t="s">
-        <v>1963</v>
+        <v>1958</v>
       </c>
       <c r="C664" s="1" t="s">
-        <v>1964</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="665" spans="1:3">
       <c r="A665" s="1" t="s">
-        <v>1965</v>
+        <v>1960</v>
       </c>
       <c r="B665" s="1" t="s">
-        <v>1966</v>
+        <v>1961</v>
       </c>
       <c r="C665" s="1" t="s">
-        <v>1967</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="666" spans="1:3">
       <c r="A666" s="1" t="s">
-        <v>1968</v>
+        <v>1963</v>
       </c>
       <c r="B666" s="1" t="s">
-        <v>1969</v>
+        <v>1964</v>
       </c>
       <c r="C666" s="1" t="s">
-        <v>1970</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="667" spans="1:3">
       <c r="A667" s="1" t="s">
-        <v>1971</v>
+        <v>1966</v>
       </c>
       <c r="B667" s="1" t="s">
-        <v>1972</v>
+        <v>1967</v>
       </c>
       <c r="C667" s="1" t="s">
-        <v>1973</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="668" spans="1:3">
       <c r="A668" s="1" t="s">
-        <v>1974</v>
+        <v>1969</v>
       </c>
       <c r="B668" s="1" t="s">
-        <v>1975</v>
+        <v>1970</v>
       </c>
       <c r="C668" s="1" t="s">
-        <v>1976</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="669" spans="1:3">
       <c r="A669" s="1" t="s">
-        <v>1977</v>
+        <v>1972</v>
       </c>
       <c r="B669" s="1" t="s">
         <v>99</v>
@@ -15276,29 +15276,29 @@
     </row>
     <row r="670" spans="1:3">
       <c r="A670" s="1" t="s">
-        <v>1978</v>
+        <v>1973</v>
       </c>
       <c r="B670" s="1" t="s">
-        <v>1979</v>
+        <v>1974</v>
       </c>
       <c r="C670" s="1" t="s">
-        <v>1980</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="671" spans="1:3">
       <c r="A671" s="1" t="s">
-        <v>1981</v>
+        <v>1976</v>
       </c>
       <c r="B671" s="1" t="s">
-        <v>1982</v>
+        <v>1977</v>
       </c>
       <c r="C671" s="1" t="s">
-        <v>1983</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="672" spans="1:3">
       <c r="A672" s="1" t="s">
-        <v>1984</v>
+        <v>1979</v>
       </c>
       <c r="B672" s="1" t="s">
         <v>100</v>
@@ -15309,7 +15309,7 @@
     </row>
     <row r="673" spans="1:3">
       <c r="A673" s="1" t="s">
-        <v>1985</v>
+        <v>1980</v>
       </c>
       <c r="B673" s="1" t="s">
         <v>101</v>
@@ -15320,40 +15320,40 @@
     </row>
     <row r="674" spans="1:3">
       <c r="A674" s="1" t="s">
-        <v>1986</v>
+        <v>1981</v>
       </c>
       <c r="B674" s="1" t="s">
-        <v>1987</v>
+        <v>1982</v>
       </c>
       <c r="C674" s="1" t="s">
-        <v>1988</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="675" spans="1:3">
       <c r="A675" s="1" t="s">
-        <v>1989</v>
+        <v>1984</v>
       </c>
       <c r="B675" s="1" t="s">
-        <v>1990</v>
+        <v>1985</v>
       </c>
       <c r="C675" s="1" t="s">
-        <v>1991</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="676" spans="1:3">
       <c r="A676" s="1" t="s">
-        <v>1992</v>
+        <v>1987</v>
       </c>
       <c r="B676" s="1" t="s">
-        <v>1993</v>
+        <v>1988</v>
       </c>
       <c r="C676" s="1" t="s">
-        <v>1994</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="677" spans="1:3">
       <c r="A677" s="1" t="s">
-        <v>1995</v>
+        <v>1990</v>
       </c>
       <c r="B677" s="1" t="s">
         <v>133</v>
@@ -15364,7 +15364,7 @@
     </row>
     <row r="678" spans="1:3">
       <c r="A678" s="1" t="s">
-        <v>1996</v>
+        <v>1991</v>
       </c>
       <c r="B678" s="1" t="s">
         <v>98</v>
@@ -15375,7 +15375,7 @@
     </row>
     <row r="679" spans="1:3">
       <c r="A679" s="1" t="s">
-        <v>1997</v>
+        <v>1992</v>
       </c>
       <c r="B679" s="1" t="s">
         <v>102</v>
@@ -15386,150 +15386,150 @@
     </row>
     <row r="680" spans="1:3">
       <c r="A680" s="1" t="s">
-        <v>1998</v>
+        <v>1993</v>
       </c>
       <c r="B680" s="1" t="s">
-        <v>1999</v>
+        <v>1994</v>
       </c>
       <c r="C680" s="1" t="s">
-        <v>2000</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="681" spans="1:3">
       <c r="A681" s="1" t="s">
-        <v>2001</v>
+        <v>1996</v>
       </c>
       <c r="B681" s="1" t="s">
-        <v>2002</v>
+        <v>1997</v>
       </c>
       <c r="C681" s="1" t="s">
-        <v>2003</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="682" spans="1:3">
       <c r="A682" s="1" t="s">
-        <v>2004</v>
+        <v>1999</v>
       </c>
       <c r="B682" s="1" t="s">
-        <v>2005</v>
+        <v>2000</v>
       </c>
       <c r="C682" s="1" t="s">
-        <v>2006</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="683" spans="1:3">
       <c r="A683" s="1" t="s">
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="B683" s="1" t="s">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="C683" s="1" t="s">
-        <v>2009</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="684" spans="1:3">
       <c r="A684" s="1" t="s">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="B684" s="1" t="s">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="C684" s="1" t="s">
-        <v>2012</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="685" spans="1:3">
       <c r="A685" s="1" t="s">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="B685" s="1" t="s">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="C685" s="1" t="s">
-        <v>2015</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="686" spans="1:3">
       <c r="A686" s="1" t="s">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="B686" s="1" t="s">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="C686" s="1" t="s">
-        <v>2018</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="687" spans="1:3">
       <c r="A687" s="1" t="s">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="B687" s="1" t="s">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="C687" s="1" t="s">
-        <v>2021</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="688" spans="1:3">
       <c r="A688" s="1" t="s">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="B688" s="1" t="s">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="C688" s="1" t="s">
-        <v>2024</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="689" spans="1:3">
       <c r="A689" s="1" t="s">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="B689" s="1" t="s">
-        <v>2026</v>
+        <v>2021</v>
       </c>
       <c r="C689" s="1" t="s">
-        <v>2027</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="690" spans="1:3">
       <c r="A690" s="1" t="s">
-        <v>2028</v>
+        <v>2023</v>
       </c>
       <c r="B690" s="1" t="s">
-        <v>2029</v>
+        <v>2024</v>
       </c>
       <c r="C690" s="1" t="s">
-        <v>2030</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="691" spans="1:3">
       <c r="A691" s="1" t="s">
-        <v>2031</v>
+        <v>2026</v>
       </c>
       <c r="B691" s="1" t="s">
-        <v>2032</v>
+        <v>2027</v>
       </c>
       <c r="C691" s="1" t="s">
-        <v>2033</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="692" spans="1:3">
       <c r="A692" s="1" t="s">
-        <v>2034</v>
+        <v>2029</v>
       </c>
       <c r="B692" s="1" t="s">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="C692" s="1" t="s">
-        <v>2036</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="693" spans="1:3">
       <c r="A693" s="1" t="s">
-        <v>2037</v>
+        <v>2032</v>
       </c>
       <c r="B693" s="1" t="s">
         <v>103</v>
@@ -15540,18 +15540,18 @@
     </row>
     <row r="694" spans="1:3">
       <c r="A694" s="1" t="s">
-        <v>2038</v>
+        <v>2033</v>
       </c>
       <c r="B694" s="1" t="s">
-        <v>2039</v>
+        <v>2034</v>
       </c>
       <c r="C694" s="1" t="s">
-        <v>2040</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="695" spans="1:3">
       <c r="A695" s="1" t="s">
-        <v>2041</v>
+        <v>2036</v>
       </c>
       <c r="B695" s="1" t="s">
         <v>138</v>
@@ -15562,95 +15562,95 @@
     </row>
     <row r="696" spans="1:3">
       <c r="A696" s="1" t="s">
-        <v>2042</v>
+        <v>2037</v>
       </c>
       <c r="B696" s="1" t="s">
-        <v>2043</v>
+        <v>2038</v>
       </c>
       <c r="C696" s="1" t="s">
-        <v>2044</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="697" spans="1:3">
       <c r="A697" s="1" t="s">
-        <v>2045</v>
+        <v>2040</v>
       </c>
       <c r="B697" s="1" t="s">
-        <v>2046</v>
+        <v>2041</v>
       </c>
       <c r="C697" s="1" t="s">
-        <v>2047</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="698" spans="1:3">
       <c r="A698" s="1" t="s">
-        <v>2048</v>
+        <v>2043</v>
       </c>
       <c r="B698" s="1" t="s">
-        <v>2049</v>
+        <v>2044</v>
       </c>
       <c r="C698" s="1" t="s">
-        <v>2050</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="699" spans="1:3">
       <c r="A699" s="1" t="s">
-        <v>2051</v>
+        <v>2046</v>
       </c>
       <c r="B699" s="1" t="s">
-        <v>2052</v>
+        <v>2047</v>
       </c>
       <c r="C699" s="1" t="s">
-        <v>2053</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="700" spans="1:3">
       <c r="A700" s="1" t="s">
-        <v>2054</v>
+        <v>2049</v>
       </c>
       <c r="B700" s="1" t="s">
-        <v>2055</v>
+        <v>2050</v>
       </c>
       <c r="C700" s="1" t="s">
-        <v>2056</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="701" spans="1:3">
       <c r="A701" s="1" t="s">
-        <v>2057</v>
+        <v>2052</v>
       </c>
       <c r="B701" s="1" t="s">
-        <v>2058</v>
+        <v>2053</v>
       </c>
       <c r="C701" s="1" t="s">
-        <v>2059</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="702" spans="1:3">
       <c r="A702" s="1" t="s">
-        <v>2060</v>
+        <v>2055</v>
       </c>
       <c r="B702" s="1" t="s">
-        <v>2061</v>
+        <v>2056</v>
       </c>
       <c r="C702" s="1" t="s">
-        <v>2062</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="703" spans="1:3">
       <c r="A703" s="1" t="s">
-        <v>2063</v>
+        <v>2058</v>
       </c>
       <c r="B703" s="1" t="s">
-        <v>2064</v>
+        <v>2059</v>
       </c>
       <c r="C703" s="1" t="s">
-        <v>2065</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="704" spans="1:3">
       <c r="A704" s="1" t="s">
-        <v>2066</v>
+        <v>2061</v>
       </c>
       <c r="B704" s="1" t="s">
         <v>43</v>
@@ -15661,7 +15661,7 @@
     </row>
     <row r="705" spans="1:3">
       <c r="A705" s="1" t="s">
-        <v>2067</v>
+        <v>2062</v>
       </c>
       <c r="B705" s="1" t="s">
         <v>184</v>
@@ -15672,7 +15672,7 @@
     </row>
     <row r="706" spans="1:3">
       <c r="A706" s="1" t="s">
-        <v>2068</v>
+        <v>2063</v>
       </c>
       <c r="B706" s="1" t="s">
         <v>185</v>
@@ -15683,7 +15683,7 @@
     </row>
     <row r="707" spans="1:3">
       <c r="A707" s="1" t="s">
-        <v>2069</v>
+        <v>2064</v>
       </c>
       <c r="B707" s="1" t="s">
         <v>42</v>
@@ -15694,18 +15694,18 @@
     </row>
     <row r="708" spans="1:3">
       <c r="A708" s="1" t="s">
-        <v>2070</v>
+        <v>2065</v>
       </c>
       <c r="B708" s="1" t="s">
-        <v>2071</v>
+        <v>2066</v>
       </c>
       <c r="C708" s="1" t="s">
-        <v>2072</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="709" spans="1:3">
       <c r="A709" s="1" t="s">
-        <v>2073</v>
+        <v>2068</v>
       </c>
       <c r="B709" s="1" t="s">
         <v>172</v>
@@ -15716,51 +15716,51 @@
     </row>
     <row r="710" spans="1:3">
       <c r="A710" s="1" t="s">
-        <v>2074</v>
+        <v>2069</v>
       </c>
       <c r="B710" s="1" t="s">
-        <v>2075</v>
+        <v>2070</v>
       </c>
       <c r="C710" s="1" t="s">
-        <v>2076</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="711" spans="1:3">
       <c r="A711" s="1" t="s">
-        <v>2077</v>
+        <v>2072</v>
       </c>
       <c r="B711" s="1" t="s">
-        <v>2078</v>
+        <v>2073</v>
       </c>
       <c r="C711" s="1" t="s">
-        <v>2079</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="712" spans="1:3">
       <c r="A712" s="1" t="s">
-        <v>2080</v>
+        <v>2075</v>
       </c>
       <c r="B712" s="1" t="s">
-        <v>2081</v>
+        <v>2076</v>
       </c>
       <c r="C712" s="1" t="s">
-        <v>2082</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="713" spans="1:3">
       <c r="A713" s="1" t="s">
-        <v>2083</v>
+        <v>2078</v>
       </c>
       <c r="B713" s="1" t="s">
-        <v>2084</v>
+        <v>2079</v>
       </c>
       <c r="C713" s="1" t="s">
-        <v>2085</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="714" spans="1:3">
       <c r="A714" s="1" t="s">
-        <v>2086</v>
+        <v>2081</v>
       </c>
       <c r="B714" s="1" t="s">
         <v>134</v>
@@ -15771,62 +15771,62 @@
     </row>
     <row r="715" spans="1:3">
       <c r="A715" s="1" t="s">
-        <v>2087</v>
+        <v>2082</v>
       </c>
       <c r="B715" s="1" t="s">
-        <v>2088</v>
+        <v>2083</v>
       </c>
       <c r="C715" s="1" t="s">
-        <v>2089</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="716" spans="1:3">
       <c r="A716" s="1" t="s">
-        <v>2090</v>
+        <v>2085</v>
       </c>
       <c r="B716" s="1" t="s">
-        <v>2091</v>
+        <v>2086</v>
       </c>
       <c r="C716" s="1" t="s">
-        <v>2092</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="717" spans="1:3">
       <c r="A717" s="1" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
       <c r="B717" s="1" t="s">
-        <v>2094</v>
+        <v>2089</v>
       </c>
       <c r="C717" s="1" t="s">
-        <v>2095</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="718" spans="1:3">
       <c r="A718" s="1" t="s">
-        <v>2096</v>
+        <v>2091</v>
       </c>
       <c r="B718" s="1" t="s">
-        <v>2097</v>
+        <v>2092</v>
       </c>
       <c r="C718" s="1" t="s">
-        <v>2098</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="719" spans="1:3">
       <c r="A719" s="1" t="s">
-        <v>2099</v>
+        <v>2094</v>
       </c>
       <c r="B719" s="1" t="s">
-        <v>2100</v>
+        <v>2095</v>
       </c>
       <c r="C719" s="1" t="s">
-        <v>2101</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="720" spans="1:3">
       <c r="A720" s="1" t="s">
-        <v>2102</v>
+        <v>2097</v>
       </c>
       <c r="B720" s="1" t="s">
         <v>44</v>
@@ -15837,18 +15837,18 @@
     </row>
     <row r="721" spans="1:3">
       <c r="A721" s="1" t="s">
-        <v>2103</v>
+        <v>2098</v>
       </c>
       <c r="B721" s="1" t="s">
-        <v>2104</v>
+        <v>2099</v>
       </c>
       <c r="C721" s="1" t="s">
-        <v>2105</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="722" spans="1:3">
       <c r="A722" s="1" t="s">
-        <v>2106</v>
+        <v>2101</v>
       </c>
       <c r="B722" s="1" t="s">
         <v>173</v>
@@ -15859,29 +15859,29 @@
     </row>
     <row r="723" spans="1:3">
       <c r="A723" s="1" t="s">
-        <v>2107</v>
+        <v>2102</v>
       </c>
       <c r="B723" s="1" t="s">
-        <v>2108</v>
+        <v>2103</v>
       </c>
       <c r="C723" s="1" t="s">
-        <v>2109</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="724" spans="1:3">
       <c r="A724" s="1" t="s">
-        <v>2110</v>
+        <v>2105</v>
       </c>
       <c r="B724" s="1" t="s">
-        <v>2111</v>
+        <v>2106</v>
       </c>
       <c r="C724" s="1" t="s">
-        <v>2112</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="725" spans="1:3">
       <c r="A725" s="1" t="s">
-        <v>2113</v>
+        <v>2108</v>
       </c>
       <c r="B725" s="1" t="s">
         <v>135</v>
@@ -15892,7 +15892,7 @@
     </row>
     <row r="726" spans="1:3">
       <c r="A726" s="1" t="s">
-        <v>2114</v>
+        <v>2109</v>
       </c>
       <c r="B726" s="1" t="s">
         <v>47</v>
@@ -15903,7 +15903,7 @@
     </row>
     <row r="727" spans="1:3">
       <c r="A727" s="1" t="s">
-        <v>2115</v>
+        <v>2110</v>
       </c>
       <c r="B727" s="1" t="s">
         <v>199</v>
@@ -15914,51 +15914,51 @@
     </row>
     <row r="728" spans="1:3">
       <c r="A728" s="1" t="s">
-        <v>2116</v>
+        <v>2111</v>
       </c>
       <c r="B728" s="1" t="s">
-        <v>2117</v>
+        <v>2112</v>
       </c>
       <c r="C728" s="1" t="s">
-        <v>2118</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="729" spans="1:3">
       <c r="A729" s="1" t="s">
-        <v>2119</v>
+        <v>2114</v>
       </c>
       <c r="B729" s="1" t="s">
-        <v>2120</v>
+        <v>2115</v>
       </c>
       <c r="C729" s="1" t="s">
-        <v>2121</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="730" spans="1:3">
       <c r="A730" s="1" t="s">
-        <v>2122</v>
+        <v>2117</v>
       </c>
       <c r="B730" s="1" t="s">
-        <v>2123</v>
+        <v>2118</v>
       </c>
       <c r="C730" s="1" t="s">
-        <v>2124</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="731" spans="1:3">
       <c r="A731" s="1" t="s">
-        <v>2125</v>
+        <v>2120</v>
       </c>
       <c r="B731" s="1" t="s">
-        <v>2126</v>
+        <v>2121</v>
       </c>
       <c r="C731" s="1" t="s">
-        <v>2127</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="732" spans="1:3">
       <c r="A732" s="1" t="s">
-        <v>2128</v>
+        <v>2123</v>
       </c>
       <c r="B732" s="1" t="s">
         <v>38</v>
@@ -15969,18 +15969,18 @@
     </row>
     <row r="733" spans="1:3">
       <c r="A733" s="1" t="s">
-        <v>2129</v>
+        <v>2124</v>
       </c>
       <c r="B733" s="1" t="s">
-        <v>2130</v>
+        <v>2125</v>
       </c>
       <c r="C733" s="1" t="s">
-        <v>2131</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="734" spans="1:3">
       <c r="A734" s="1" t="s">
-        <v>2132</v>
+        <v>2127</v>
       </c>
       <c r="B734" s="1" t="s">
         <v>108</v>
@@ -15991,29 +15991,29 @@
     </row>
     <row r="735" spans="1:3">
       <c r="A735" s="1" t="s">
-        <v>2133</v>
+        <v>2128</v>
       </c>
       <c r="B735" s="1" t="s">
-        <v>2134</v>
+        <v>2129</v>
       </c>
       <c r="C735" s="1" t="s">
-        <v>2135</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="736" spans="1:3">
       <c r="A736" s="1" t="s">
-        <v>2136</v>
+        <v>2131</v>
       </c>
       <c r="B736" s="1" t="s">
-        <v>2137</v>
+        <v>2132</v>
       </c>
       <c r="C736" s="1" t="s">
-        <v>2138</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="737" spans="1:3">
       <c r="A737" s="1" t="s">
-        <v>2139</v>
+        <v>2134</v>
       </c>
       <c r="B737" s="1" t="s">
         <v>22</v>
@@ -16024,7 +16024,7 @@
     </row>
     <row r="738" spans="1:3">
       <c r="A738" s="1" t="s">
-        <v>2140</v>
+        <v>2135</v>
       </c>
       <c r="B738" s="1" t="s">
         <v>169</v>
@@ -16035,51 +16035,51 @@
     </row>
     <row r="739" spans="1:3">
       <c r="A739" s="1" t="s">
-        <v>2141</v>
+        <v>2136</v>
       </c>
       <c r="B739" s="1" t="s">
-        <v>2142</v>
+        <v>2137</v>
       </c>
       <c r="C739" s="1" t="s">
-        <v>2143</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="740" spans="1:3">
       <c r="A740" s="1" t="s">
-        <v>2144</v>
+        <v>2139</v>
       </c>
       <c r="B740" s="1" t="s">
-        <v>2145</v>
+        <v>2140</v>
       </c>
       <c r="C740" s="1" t="s">
-        <v>2146</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="741" spans="1:3">
       <c r="A741" s="1" t="s">
-        <v>2147</v>
+        <v>2142</v>
       </c>
       <c r="B741" s="1" t="s">
-        <v>2148</v>
+        <v>2143</v>
       </c>
       <c r="C741" s="1" t="s">
-        <v>2149</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="742" spans="1:3">
       <c r="A742" s="1" t="s">
-        <v>2150</v>
+        <v>2145</v>
       </c>
       <c r="B742" s="1" t="s">
-        <v>2151</v>
+        <v>2146</v>
       </c>
       <c r="C742" s="1" t="s">
-        <v>2152</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="743" spans="1:3">
       <c r="A743" s="1" t="s">
-        <v>2153</v>
+        <v>2148</v>
       </c>
       <c r="B743" s="1" t="s">
         <v>144</v>
@@ -16090,7 +16090,7 @@
     </row>
     <row r="744" spans="1:3">
       <c r="A744" s="1" t="s">
-        <v>2154</v>
+        <v>2149</v>
       </c>
       <c r="B744" s="1" t="s">
         <v>104</v>
@@ -16101,7 +16101,7 @@
     </row>
     <row r="745" spans="1:3">
       <c r="A745" s="1" t="s">
-        <v>2155</v>
+        <v>2150</v>
       </c>
       <c r="B745" s="1" t="s">
         <v>165</v>
@@ -16112,18 +16112,18 @@
     </row>
     <row r="746" spans="1:3">
       <c r="A746" s="1" t="s">
-        <v>2156</v>
+        <v>2151</v>
       </c>
       <c r="B746" s="1" t="s">
-        <v>2157</v>
+        <v>2152</v>
       </c>
       <c r="C746" s="1" t="s">
-        <v>2158</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="747" spans="1:3">
       <c r="A747" s="1" t="s">
-        <v>2159</v>
+        <v>2154</v>
       </c>
       <c r="B747" s="1" t="s">
         <v>177</v>
@@ -16134,7 +16134,7 @@
     </row>
     <row r="748" spans="1:3">
       <c r="A748" s="1" t="s">
-        <v>2160</v>
+        <v>2155</v>
       </c>
       <c r="B748" s="1" t="s">
         <v>151</v>
@@ -16145,7 +16145,7 @@
     </row>
     <row r="749" spans="1:3">
       <c r="A749" s="1" t="s">
-        <v>2161</v>
+        <v>2156</v>
       </c>
       <c r="B749" s="1" t="s">
         <v>212</v>
@@ -16156,7 +16156,7 @@
     </row>
     <row r="750" spans="1:3">
       <c r="A750" s="1" t="s">
-        <v>2162</v>
+        <v>2157</v>
       </c>
       <c r="B750" s="1" t="s">
         <v>175</v>
@@ -16167,18 +16167,18 @@
     </row>
     <row r="751" spans="1:3">
       <c r="A751" s="1" t="s">
-        <v>2163</v>
+        <v>2158</v>
       </c>
       <c r="B751" s="1" t="s">
-        <v>2164</v>
+        <v>2159</v>
       </c>
       <c r="C751" s="1" t="s">
-        <v>2165</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="752" spans="1:3">
       <c r="A752" s="1" t="s">
-        <v>2166</v>
+        <v>2161</v>
       </c>
       <c r="B752" s="1" t="s">
         <v>149</v>
@@ -16189,7 +16189,7 @@
     </row>
     <row r="753" spans="1:3">
       <c r="A753" s="1" t="s">
-        <v>2167</v>
+        <v>2162</v>
       </c>
       <c r="B753" s="1" t="s">
         <v>214</v>
@@ -16200,29 +16200,29 @@
     </row>
     <row r="754" spans="1:3">
       <c r="A754" s="1" t="s">
-        <v>2168</v>
+        <v>2163</v>
       </c>
       <c r="B754" s="1" t="s">
-        <v>2169</v>
+        <v>2164</v>
       </c>
       <c r="C754" s="1" t="s">
-        <v>2170</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="755" spans="1:3">
       <c r="A755" s="1" t="s">
-        <v>2171</v>
+        <v>2166</v>
       </c>
       <c r="B755" s="1" t="s">
-        <v>2172</v>
+        <v>2167</v>
       </c>
       <c r="C755" s="1" t="s">
-        <v>2173</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="756" spans="1:3">
       <c r="A756" s="1" t="s">
-        <v>2174</v>
+        <v>2169</v>
       </c>
       <c r="B756" s="1" t="s">
         <v>79</v>
@@ -16233,7 +16233,7 @@
     </row>
     <row r="757" spans="1:3">
       <c r="A757" s="1" t="s">
-        <v>2175</v>
+        <v>2170</v>
       </c>
       <c r="B757" s="1" t="s">
         <v>83</v>
@@ -16244,7 +16244,7 @@
     </row>
     <row r="758" spans="1:3">
       <c r="A758" s="1" t="s">
-        <v>2176</v>
+        <v>2171</v>
       </c>
       <c r="B758" s="1" t="s">
         <v>109</v>
@@ -16255,7 +16255,7 @@
     </row>
     <row r="759" spans="1:3">
       <c r="A759" s="1" t="s">
-        <v>2177</v>
+        <v>2172</v>
       </c>
       <c r="B759" s="1" t="s">
         <v>110</v>
@@ -16266,7 +16266,7 @@
     </row>
     <row r="760" spans="1:3">
       <c r="A760" s="1" t="s">
-        <v>2178</v>
+        <v>2173</v>
       </c>
       <c r="B760" s="1" t="s">
         <v>111</v>
@@ -16277,18 +16277,18 @@
     </row>
     <row r="761" spans="1:3">
       <c r="A761" s="1" t="s">
-        <v>2179</v>
+        <v>2174</v>
       </c>
       <c r="B761" s="1" t="s">
-        <v>2180</v>
+        <v>2175</v>
       </c>
       <c r="C761" s="1" t="s">
-        <v>2181</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="762" spans="1:3">
       <c r="A762" s="1" t="s">
-        <v>2182</v>
+        <v>2177</v>
       </c>
       <c r="B762" s="1" t="s">
         <v>187</v>
@@ -16299,7 +16299,7 @@
     </row>
     <row r="763" spans="1:3">
       <c r="A763" s="1" t="s">
-        <v>2183</v>
+        <v>2178</v>
       </c>
       <c r="B763" s="1" t="s">
         <v>186</v>
@@ -16310,7 +16310,7 @@
     </row>
     <row r="764" spans="1:3">
       <c r="A764" s="1" t="s">
-        <v>2184</v>
+        <v>2179</v>
       </c>
       <c r="B764" s="1" t="s">
         <v>40</v>
@@ -16321,18 +16321,18 @@
     </row>
     <row r="765" spans="1:3">
       <c r="A765" s="1" t="s">
-        <v>2185</v>
+        <v>2180</v>
       </c>
       <c r="B765" s="1" t="s">
-        <v>2186</v>
+        <v>2181</v>
       </c>
       <c r="C765" s="1" t="s">
-        <v>2187</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="766" spans="1:3">
       <c r="A766" s="1" t="s">
-        <v>2188</v>
+        <v>2183</v>
       </c>
       <c r="B766" s="1" t="s">
         <v>81</v>
@@ -16343,29 +16343,29 @@
     </row>
     <row r="767" spans="1:3">
       <c r="A767" s="1" t="s">
-        <v>2189</v>
+        <v>2184</v>
       </c>
       <c r="B767" s="1" t="s">
         <v>183</v>
       </c>
       <c r="C767" s="1" t="s">
-        <v>2190</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="768" spans="1:3">
       <c r="A768" s="1" t="s">
-        <v>2191</v>
+        <v>2186</v>
       </c>
       <c r="B768" s="1" t="s">
-        <v>2192</v>
+        <v>2187</v>
       </c>
       <c r="C768" s="1" t="s">
-        <v>2193</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="769" spans="1:3">
       <c r="A769" s="1" t="s">
-        <v>2194</v>
+        <v>2189</v>
       </c>
       <c r="B769" s="1" t="s">
         <v>112</v>
@@ -16376,18 +16376,18 @@
     </row>
     <row r="770" spans="1:3">
       <c r="A770" s="1" t="s">
-        <v>2195</v>
+        <v>2190</v>
       </c>
       <c r="B770" s="1" t="s">
-        <v>2196</v>
+        <v>2191</v>
       </c>
       <c r="C770" s="1" t="s">
-        <v>2197</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="771" spans="1:3">
       <c r="A771" s="1" t="s">
-        <v>2198</v>
+        <v>2193</v>
       </c>
       <c r="B771" s="1" t="s">
         <v>39</v>
@@ -16398,7 +16398,7 @@
     </row>
     <row r="772" spans="1:3">
       <c r="A772" s="1" t="s">
-        <v>2199</v>
+        <v>2194</v>
       </c>
       <c r="B772" s="1" t="s">
         <v>197</v>
@@ -16409,7 +16409,7 @@
     </row>
     <row r="773" spans="1:3">
       <c r="A773" s="1" t="s">
-        <v>2200</v>
+        <v>2195</v>
       </c>
       <c r="B773" s="1" t="s">
         <v>80</v>
@@ -16420,161 +16420,161 @@
     </row>
     <row r="774" spans="1:3">
       <c r="A774" s="1" t="s">
-        <v>2201</v>
+        <v>2196</v>
       </c>
       <c r="B774" s="1" t="s">
-        <v>2202</v>
+        <v>2197</v>
       </c>
       <c r="C774" s="1" t="s">
-        <v>2203</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="775" spans="1:3">
       <c r="A775" s="1" t="s">
-        <v>2204</v>
+        <v>2199</v>
       </c>
       <c r="B775" s="1" t="s">
-        <v>2205</v>
+        <v>2200</v>
       </c>
       <c r="C775" s="1" t="s">
-        <v>2206</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="776" spans="1:3">
       <c r="A776" s="1" t="s">
-        <v>2207</v>
+        <v>2202</v>
       </c>
       <c r="B776" s="1" t="s">
-        <v>2208</v>
+        <v>2203</v>
       </c>
       <c r="C776" s="1" t="s">
-        <v>2209</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="777" spans="1:3">
       <c r="A777" s="1" t="s">
-        <v>2210</v>
+        <v>2205</v>
       </c>
       <c r="B777" s="1" t="s">
-        <v>2211</v>
+        <v>2206</v>
       </c>
       <c r="C777" s="1" t="s">
-        <v>2212</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="778" spans="1:3">
       <c r="A778" s="1" t="s">
-        <v>2213</v>
+        <v>2208</v>
       </c>
       <c r="B778" s="1" t="s">
-        <v>2214</v>
+        <v>2209</v>
       </c>
       <c r="C778" s="1" t="s">
-        <v>2215</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="779" spans="1:3">
       <c r="A779" s="1" t="s">
-        <v>2216</v>
+        <v>2211</v>
       </c>
       <c r="B779" s="1" t="s">
-        <v>2217</v>
+        <v>2212</v>
       </c>
       <c r="C779" s="1" t="s">
-        <v>2218</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="780" spans="1:3">
       <c r="A780" s="1" t="s">
-        <v>2219</v>
+        <v>2214</v>
       </c>
       <c r="B780" s="1" t="s">
-        <v>2220</v>
+        <v>2215</v>
       </c>
       <c r="C780" s="1" t="s">
-        <v>2221</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="781" spans="1:3">
       <c r="A781" s="1" t="s">
-        <v>2222</v>
+        <v>2217</v>
       </c>
       <c r="B781" s="1" t="s">
-        <v>2223</v>
+        <v>2218</v>
       </c>
       <c r="C781" s="1" t="s">
-        <v>2224</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="782" spans="1:3">
       <c r="A782" s="1" t="s">
-        <v>2225</v>
+        <v>2220</v>
       </c>
       <c r="B782" s="1" t="s">
-        <v>2226</v>
+        <v>2221</v>
       </c>
       <c r="C782" s="1" t="s">
-        <v>2227</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="783" spans="1:3">
       <c r="A783" s="1" t="s">
-        <v>2228</v>
+        <v>2223</v>
       </c>
       <c r="B783" s="1" t="s">
-        <v>2229</v>
+        <v>2224</v>
       </c>
       <c r="C783" s="1" t="s">
-        <v>2230</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="784" spans="1:3">
       <c r="A784" s="1" t="s">
-        <v>2231</v>
+        <v>2226</v>
       </c>
       <c r="B784" s="1" t="s">
-        <v>2232</v>
+        <v>2227</v>
       </c>
       <c r="C784" s="1" t="s">
-        <v>2233</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="785" spans="1:3">
       <c r="A785" s="1" t="s">
-        <v>2234</v>
+        <v>2229</v>
       </c>
       <c r="B785" s="1" t="s">
-        <v>2235</v>
+        <v>2230</v>
       </c>
       <c r="C785" s="1" t="s">
-        <v>2236</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="786" spans="1:3">
       <c r="A786" s="1" t="s">
-        <v>2237</v>
+        <v>2232</v>
       </c>
       <c r="B786" s="1" t="s">
-        <v>2238</v>
+        <v>2233</v>
       </c>
       <c r="C786" s="1" t="s">
-        <v>2239</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="787" spans="1:3">
       <c r="A787" s="1" t="s">
-        <v>2240</v>
+        <v>2235</v>
       </c>
       <c r="B787" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C787" s="1" t="s">
-        <v>2241</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="788" spans="1:3">
       <c r="A788" s="1" t="s">
-        <v>2242</v>
+        <v>2237</v>
       </c>
       <c r="B788" s="1" t="s">
         <v>90</v>
@@ -16585,7 +16585,7 @@
     </row>
     <row r="789" spans="1:3">
       <c r="A789" s="1" t="s">
-        <v>2243</v>
+        <v>2238</v>
       </c>
       <c r="B789" s="1" t="s">
         <v>176</v>
@@ -16596,7 +16596,7 @@
     </row>
     <row r="790" spans="1:3">
       <c r="A790" s="1" t="s">
-        <v>2244</v>
+        <v>2239</v>
       </c>
       <c r="B790" s="1" t="s">
         <v>204</v>
@@ -16607,7 +16607,7 @@
     </row>
     <row r="791" spans="1:3">
       <c r="A791" s="1" t="s">
-        <v>2245</v>
+        <v>2240</v>
       </c>
       <c r="B791" s="1" t="s">
         <v>188</v>
@@ -16618,7 +16618,7 @@
     </row>
     <row r="792" spans="1:3">
       <c r="A792" s="1" t="s">
-        <v>2246</v>
+        <v>2241</v>
       </c>
       <c r="B792" s="1" t="s">
         <v>136</v>
@@ -16629,7 +16629,7 @@
     </row>
     <row r="793" spans="1:3">
       <c r="A793" s="1" t="s">
-        <v>2247</v>
+        <v>2242</v>
       </c>
       <c r="B793" s="1" t="s">
         <v>45</v>
@@ -16640,18 +16640,18 @@
     </row>
     <row r="794" spans="1:3">
       <c r="A794" s="1" t="s">
-        <v>2248</v>
+        <v>2243</v>
       </c>
       <c r="B794" s="1" t="s">
-        <v>2249</v>
+        <v>2244</v>
       </c>
       <c r="C794" s="1" t="s">
-        <v>2250</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="795" spans="1:3">
       <c r="A795" s="1" t="s">
-        <v>2251</v>
+        <v>2246</v>
       </c>
       <c r="B795" s="1" t="s">
         <v>147</v>
@@ -16662,7 +16662,7 @@
     </row>
     <row r="796" spans="1:3">
       <c r="A796" s="1" t="s">
-        <v>2252</v>
+        <v>2247</v>
       </c>
       <c r="B796" s="1" t="s">
         <v>146</v>
@@ -16673,40 +16673,40 @@
     </row>
     <row r="797" spans="1:3">
       <c r="A797" s="1" t="s">
-        <v>2253</v>
+        <v>2248</v>
       </c>
       <c r="B797" s="1" t="s">
-        <v>2254</v>
+        <v>2249</v>
       </c>
       <c r="C797" s="1" t="s">
-        <v>2255</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="798" spans="1:3">
       <c r="A798" s="1" t="s">
-        <v>2256</v>
+        <v>2251</v>
       </c>
       <c r="B798" s="1" t="s">
-        <v>2257</v>
+        <v>2252</v>
       </c>
       <c r="C798" s="1" t="s">
-        <v>2258</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="799" spans="1:3">
       <c r="A799" s="1" t="s">
-        <v>2259</v>
+        <v>2254</v>
       </c>
       <c r="B799" s="1" t="s">
-        <v>2260</v>
+        <v>2255</v>
       </c>
       <c r="C799" s="1" t="s">
-        <v>2261</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="800" spans="1:3">
       <c r="A800" s="1" t="s">
-        <v>2262</v>
+        <v>2257</v>
       </c>
       <c r="B800" s="1" t="s">
         <v>88</v>
@@ -16717,29 +16717,29 @@
     </row>
     <row r="801" spans="1:3">
       <c r="A801" s="1" t="s">
-        <v>2263</v>
+        <v>2258</v>
       </c>
       <c r="B801" s="1" t="s">
-        <v>2264</v>
+        <v>2259</v>
       </c>
       <c r="C801" s="1" t="s">
-        <v>2265</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="802" spans="1:3">
       <c r="A802" s="1" t="s">
-        <v>2266</v>
+        <v>2261</v>
       </c>
       <c r="B802" s="1" t="s">
-        <v>2267</v>
+        <v>2262</v>
       </c>
       <c r="C802" s="1" t="s">
-        <v>2268</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="803" spans="1:3">
       <c r="A803" s="1" t="s">
-        <v>2269</v>
+        <v>2264</v>
       </c>
       <c r="B803" s="1" t="s">
         <v>150</v>
@@ -16750,7 +16750,7 @@
     </row>
     <row r="804" spans="1:3">
       <c r="A804" s="1" t="s">
-        <v>2270</v>
+        <v>2265</v>
       </c>
       <c r="B804" s="1" t="s">
         <v>89</v>
@@ -16761,7 +16761,7 @@
     </row>
     <row r="805" spans="1:3">
       <c r="A805" s="1" t="s">
-        <v>2271</v>
+        <v>2266</v>
       </c>
       <c r="B805" s="1" t="s">
         <v>114</v>
@@ -16772,7 +16772,7 @@
     </row>
     <row r="806" spans="1:3">
       <c r="A806" s="1" t="s">
-        <v>2272</v>
+        <v>2267</v>
       </c>
       <c r="B806" s="1" t="s">
         <v>113</v>
@@ -16783,18 +16783,18 @@
     </row>
     <row r="807" spans="1:3">
       <c r="A807" s="1" t="s">
-        <v>2273</v>
+        <v>2268</v>
       </c>
       <c r="B807" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C807" s="1" t="s">
-        <v>2274</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="808" spans="1:3">
       <c r="A808" s="1" t="s">
-        <v>2275</v>
+        <v>2270</v>
       </c>
       <c r="B808" s="1" t="s">
         <v>178</v>
@@ -16805,95 +16805,95 @@
     </row>
     <row r="809" spans="1:3">
       <c r="A809" s="1" t="s">
-        <v>2276</v>
+        <v>2271</v>
       </c>
       <c r="B809" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C809" s="1" t="s">
-        <v>2277</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="810" spans="1:3">
       <c r="A810" s="1" t="s">
-        <v>2278</v>
+        <v>2273</v>
       </c>
       <c r="B810" s="1" t="s">
-        <v>2279</v>
+        <v>2274</v>
       </c>
       <c r="C810" s="1" t="s">
-        <v>2280</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="811" spans="1:3">
       <c r="A811" s="1" t="s">
-        <v>2281</v>
+        <v>2276</v>
       </c>
       <c r="B811" s="1" t="s">
-        <v>2282</v>
+        <v>2277</v>
       </c>
       <c r="C811" s="1" t="s">
-        <v>2283</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="812" spans="1:3">
       <c r="A812" s="1" t="s">
-        <v>2284</v>
+        <v>2279</v>
       </c>
       <c r="B812" s="1" t="s">
-        <v>2285</v>
+        <v>2280</v>
       </c>
       <c r="C812" s="1" t="s">
-        <v>2286</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="813" spans="1:3">
       <c r="A813" s="1" t="s">
-        <v>2287</v>
+        <v>2282</v>
       </c>
       <c r="B813" s="1" t="s">
-        <v>2288</v>
+        <v>2283</v>
       </c>
       <c r="C813" s="1" t="s">
-        <v>2289</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="814" spans="1:3">
       <c r="A814" s="1" t="s">
-        <v>2290</v>
+        <v>2285</v>
       </c>
       <c r="B814" s="1" t="s">
-        <v>2291</v>
+        <v>2286</v>
       </c>
       <c r="C814" s="1" t="s">
-        <v>2292</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="815" spans="1:3">
       <c r="A815" s="1" t="s">
-        <v>2293</v>
+        <v>2288</v>
       </c>
       <c r="B815" s="1" t="s">
-        <v>2294</v>
+        <v>2289</v>
       </c>
       <c r="C815" s="1" t="s">
-        <v>2295</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="816" spans="1:3">
       <c r="A816" s="1" t="s">
-        <v>2296</v>
+        <v>2291</v>
       </c>
       <c r="B816" s="1" t="s">
-        <v>2297</v>
+        <v>2292</v>
       </c>
       <c r="C816" s="1" t="s">
-        <v>2298</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="817" spans="1:3">
       <c r="A817" s="1" t="s">
-        <v>2299</v>
+        <v>2294</v>
       </c>
       <c r="B817" s="1" t="s">
         <v>179</v>
@@ -16904,29 +16904,29 @@
     </row>
     <row r="818" spans="1:3">
       <c r="A818" s="1" t="s">
-        <v>2300</v>
+        <v>2295</v>
       </c>
       <c r="B818" s="1" t="s">
-        <v>2301</v>
+        <v>2296</v>
       </c>
       <c r="C818" s="1" t="s">
-        <v>2302</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="819" spans="1:3">
       <c r="A819" s="1" t="s">
-        <v>2303</v>
+        <v>2298</v>
       </c>
       <c r="B819" s="1" t="s">
-        <v>2304</v>
+        <v>2299</v>
       </c>
       <c r="C819" s="1" t="s">
-        <v>2305</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="820" spans="1:3">
       <c r="A820" s="1" t="s">
-        <v>2306</v>
+        <v>2301</v>
       </c>
       <c r="B820" s="1" t="s">
         <v>115</v>
@@ -16937,7 +16937,7 @@
     </row>
     <row r="821" spans="1:3">
       <c r="A821" s="1" t="s">
-        <v>2307</v>
+        <v>2302</v>
       </c>
       <c r="B821" s="1" t="s">
         <v>116</v>
@@ -16948,7 +16948,7 @@
     </row>
     <row r="822" spans="1:3">
       <c r="A822" s="1" t="s">
-        <v>2308</v>
+        <v>2303</v>
       </c>
       <c r="B822" s="1" t="s">
         <v>213</v>
@@ -16959,29 +16959,29 @@
     </row>
     <row r="823" spans="1:3">
       <c r="A823" s="1" t="s">
-        <v>2309</v>
+        <v>2304</v>
       </c>
       <c r="B823" s="1" t="s">
-        <v>2310</v>
+        <v>2305</v>
       </c>
       <c r="C823" s="1" t="s">
-        <v>2311</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="824" spans="1:3">
       <c r="A824" s="1" t="s">
-        <v>2312</v>
+        <v>2307</v>
       </c>
       <c r="B824" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C824" s="1" t="s">
-        <v>2313</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="825" spans="1:3">
       <c r="A825" s="1" t="s">
-        <v>2314</v>
+        <v>2309</v>
       </c>
       <c r="B825" s="1" t="s">
         <v>27</v>
@@ -16992,40 +16992,40 @@
     </row>
     <row r="826" spans="1:3">
       <c r="A826" s="1" t="s">
-        <v>2315</v>
+        <v>2310</v>
       </c>
       <c r="B826" s="1" t="s">
-        <v>2316</v>
+        <v>2311</v>
       </c>
       <c r="C826" s="1" t="s">
-        <v>2317</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="827" spans="1:3">
       <c r="A827" s="1" t="s">
-        <v>2318</v>
+        <v>2313</v>
       </c>
       <c r="B827" s="1" t="s">
-        <v>2319</v>
+        <v>2314</v>
       </c>
       <c r="C827" s="1" t="s">
-        <v>2320</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="828" spans="1:3">
       <c r="A828" s="1" t="s">
-        <v>2321</v>
+        <v>2316</v>
       </c>
       <c r="B828" s="1" t="s">
-        <v>2322</v>
+        <v>2317</v>
       </c>
       <c r="C828" s="1" t="s">
-        <v>2323</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="829" spans="1:3">
       <c r="A829" s="1" t="s">
-        <v>2324</v>
+        <v>2319</v>
       </c>
       <c r="B829" s="1" t="s">
         <v>206</v>
@@ -17036,7 +17036,7 @@
     </row>
     <row r="830" spans="1:3">
       <c r="A830" s="1" t="s">
-        <v>2325</v>
+        <v>2320</v>
       </c>
       <c r="B830" s="1" t="s">
         <v>205</v>
@@ -17047,7 +17047,7 @@
     </row>
     <row r="831" spans="1:3">
       <c r="A831" s="1" t="s">
-        <v>2326</v>
+        <v>2321</v>
       </c>
       <c r="B831" s="1" t="s">
         <v>117</v>
@@ -17058,29 +17058,29 @@
     </row>
     <row r="832" spans="1:3">
       <c r="A832" s="1" t="s">
-        <v>2327</v>
+        <v>2322</v>
       </c>
       <c r="B832" s="1" t="s">
-        <v>2328</v>
+        <v>2323</v>
       </c>
       <c r="C832" s="1" t="s">
-        <v>2329</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="833" spans="1:3">
       <c r="A833" s="1" t="s">
-        <v>2330</v>
+        <v>2325</v>
       </c>
       <c r="B833" s="1" t="s">
-        <v>2331</v>
+        <v>2326</v>
       </c>
       <c r="C833" s="1" t="s">
-        <v>2332</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="834" spans="1:3">
       <c r="A834" s="1" t="s">
-        <v>2333</v>
+        <v>2328</v>
       </c>
       <c r="B834" s="1" t="s">
         <v>152</v>
@@ -17091,29 +17091,29 @@
     </row>
     <row r="835" spans="1:3">
       <c r="A835" s="1" t="s">
-        <v>2334</v>
+        <v>2329</v>
       </c>
       <c r="B835" s="1" t="s">
-        <v>2335</v>
+        <v>2330</v>
       </c>
       <c r="C835" s="1" t="s">
-        <v>2336</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="836" spans="1:3">
       <c r="A836" s="1" t="s">
-        <v>2337</v>
+        <v>2332</v>
       </c>
       <c r="B836" s="1" t="s">
-        <v>2338</v>
+        <v>2333</v>
       </c>
       <c r="C836" s="1" t="s">
-        <v>2339</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="837" spans="1:3">
       <c r="A837" s="1" t="s">
-        <v>2340</v>
+        <v>2335</v>
       </c>
       <c r="B837" s="1" t="s">
         <v>92</v>
@@ -17124,7 +17124,7 @@
     </row>
     <row r="838" spans="1:3">
       <c r="A838" s="1" t="s">
-        <v>2341</v>
+        <v>2336</v>
       </c>
       <c r="B838" s="1" t="s">
         <v>118</v>
@@ -17135,18 +17135,18 @@
     </row>
     <row r="839" spans="1:3">
       <c r="A839" s="1" t="s">
-        <v>2342</v>
+        <v>2337</v>
       </c>
       <c r="B839" s="1" t="s">
-        <v>2343</v>
+        <v>2338</v>
       </c>
       <c r="C839" s="1" t="s">
-        <v>2344</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="840" spans="1:3">
       <c r="A840" s="1" t="s">
-        <v>2345</v>
+        <v>2340</v>
       </c>
       <c r="B840" s="1" t="s">
         <v>224</v>
@@ -17157,84 +17157,84 @@
     </row>
     <row r="841" spans="1:3">
       <c r="A841" s="1" t="s">
-        <v>2346</v>
+        <v>2341</v>
       </c>
       <c r="B841" s="1" t="s">
-        <v>2347</v>
+        <v>2342</v>
       </c>
       <c r="C841" s="1" t="s">
-        <v>2348</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="842" spans="1:3">
       <c r="A842" s="1" t="s">
-        <v>2349</v>
+        <v>2344</v>
       </c>
       <c r="B842" s="1" t="s">
-        <v>2350</v>
+        <v>2345</v>
       </c>
       <c r="C842" s="1" t="s">
-        <v>2351</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="843" spans="1:3">
       <c r="A843" s="1" t="s">
-        <v>2352</v>
+        <v>2347</v>
       </c>
       <c r="B843" s="1" t="s">
-        <v>2353</v>
+        <v>2348</v>
       </c>
       <c r="C843" s="1" t="s">
-        <v>2354</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="844" spans="1:3">
       <c r="A844" s="1" t="s">
-        <v>2355</v>
+        <v>2350</v>
       </c>
       <c r="B844" s="1" t="s">
-        <v>2356</v>
+        <v>2351</v>
       </c>
       <c r="C844" s="1" t="s">
-        <v>2357</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="845" spans="1:3">
       <c r="A845" s="1" t="s">
-        <v>2358</v>
+        <v>2353</v>
       </c>
       <c r="B845" s="1" t="s">
-        <v>2359</v>
+        <v>2354</v>
       </c>
       <c r="C845" s="1" t="s">
-        <v>2360</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="846" spans="1:3">
       <c r="A846" s="1" t="s">
-        <v>2361</v>
+        <v>2356</v>
       </c>
       <c r="B846" s="1" t="s">
-        <v>2362</v>
+        <v>2357</v>
       </c>
       <c r="C846" s="1" t="s">
-        <v>2363</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="847" spans="1:3">
       <c r="A847" s="1" t="s">
-        <v>2364</v>
+        <v>2359</v>
       </c>
       <c r="B847" s="1" t="s">
-        <v>2365</v>
+        <v>2360</v>
       </c>
       <c r="C847" s="1" t="s">
-        <v>2366</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="848" spans="1:3">
       <c r="A848" s="1" t="s">
-        <v>2367</v>
+        <v>2362</v>
       </c>
       <c r="B848" s="1" t="s">
         <v>225</v>
@@ -17245,106 +17245,106 @@
     </row>
     <row r="849" spans="1:3">
       <c r="A849" s="1" t="s">
-        <v>2368</v>
+        <v>2363</v>
       </c>
       <c r="B849" s="1" t="s">
-        <v>2369</v>
+        <v>2364</v>
       </c>
       <c r="C849" s="1" t="s">
-        <v>2370</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="850" spans="1:3">
       <c r="A850" s="1" t="s">
-        <v>2371</v>
+        <v>2366</v>
       </c>
       <c r="B850" s="1" t="s">
-        <v>2372</v>
+        <v>2367</v>
       </c>
       <c r="C850" s="1" t="s">
-        <v>2373</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="851" spans="1:3">
       <c r="A851" s="1" t="s">
-        <v>2374</v>
+        <v>2369</v>
       </c>
       <c r="B851" s="1" t="s">
-        <v>2375</v>
+        <v>2370</v>
       </c>
       <c r="C851" s="1" t="s">
-        <v>2376</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="852" spans="1:3">
       <c r="A852" s="1" t="s">
-        <v>2377</v>
+        <v>2372</v>
       </c>
       <c r="B852" s="1" t="s">
-        <v>2378</v>
+        <v>2373</v>
       </c>
       <c r="C852" s="1" t="s">
-        <v>2379</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="853" spans="1:3">
       <c r="A853" s="1" t="s">
-        <v>2380</v>
+        <v>2375</v>
       </c>
       <c r="B853" s="1" t="s">
-        <v>2381</v>
+        <v>2376</v>
       </c>
       <c r="C853" s="1" t="s">
-        <v>2382</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="854" spans="1:3">
       <c r="A854" s="1" t="s">
-        <v>2383</v>
+        <v>2378</v>
       </c>
       <c r="B854" s="1" t="s">
-        <v>2384</v>
+        <v>2379</v>
       </c>
       <c r="C854" s="1" t="s">
-        <v>2385</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="855" spans="1:3">
       <c r="A855" s="1" t="s">
-        <v>2386</v>
+        <v>2381</v>
       </c>
       <c r="B855" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C855" s="1" t="s">
-        <v>2387</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="856" spans="1:3">
       <c r="A856" s="1" t="s">
-        <v>2388</v>
+        <v>2383</v>
       </c>
       <c r="B856" s="1" t="s">
         <v>189</v>
       </c>
       <c r="C856" s="1" t="s">
-        <v>2389</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="857" spans="1:3">
       <c r="A857" s="1" t="s">
-        <v>2390</v>
+        <v>2385</v>
       </c>
       <c r="B857" s="1" t="s">
         <v>190</v>
       </c>
       <c r="C857" s="1" t="s">
-        <v>2391</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="858" spans="1:3">
       <c r="A858" s="1" t="s">
-        <v>2392</v>
+        <v>2387</v>
       </c>
       <c r="B858" s="1" t="s">
         <v>191</v>
@@ -17355,18 +17355,18 @@
     </row>
     <row r="859" spans="1:3">
       <c r="A859" s="1" t="s">
-        <v>2393</v>
+        <v>2388</v>
       </c>
       <c r="B859" s="1" t="s">
-        <v>2394</v>
+        <v>2389</v>
       </c>
       <c r="C859" s="1" t="s">
-        <v>2395</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="860" spans="1:3">
       <c r="A860" s="1" t="s">
-        <v>2396</v>
+        <v>2391</v>
       </c>
       <c r="B860" s="1" t="s">
         <v>207</v>
@@ -17377,7 +17377,7 @@
     </row>
     <row r="861" spans="1:3">
       <c r="A861" s="1" t="s">
-        <v>2397</v>
+        <v>2392</v>
       </c>
       <c r="B861" s="1" t="s">
         <v>49</v>
@@ -17388,51 +17388,51 @@
     </row>
     <row r="862" spans="1:3">
       <c r="A862" s="1" t="s">
-        <v>2398</v>
+        <v>2393</v>
       </c>
       <c r="B862" s="1" t="s">
-        <v>2399</v>
+        <v>2394</v>
       </c>
       <c r="C862" s="1" t="s">
-        <v>2400</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="863" spans="1:3">
       <c r="A863" s="1" t="s">
-        <v>2401</v>
+        <v>2396</v>
       </c>
       <c r="B863" s="1" t="s">
-        <v>2402</v>
+        <v>2397</v>
       </c>
       <c r="C863" s="1" t="s">
-        <v>2403</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="864" spans="1:3">
       <c r="A864" s="1" t="s">
-        <v>2404</v>
+        <v>2399</v>
       </c>
       <c r="B864" s="1" t="s">
-        <v>2405</v>
+        <v>2400</v>
       </c>
       <c r="C864" s="1" t="s">
-        <v>2406</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="865" spans="1:3">
       <c r="A865" s="1" t="s">
-        <v>2407</v>
+        <v>2402</v>
       </c>
       <c r="B865" s="1" t="s">
-        <v>2408</v>
+        <v>2403</v>
       </c>
       <c r="C865" s="1" t="s">
-        <v>2409</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="866" spans="1:3">
       <c r="A866" s="1" t="s">
-        <v>2410</v>
+        <v>2405</v>
       </c>
       <c r="B866" s="1" t="s">
         <v>154</v>
@@ -17443,18 +17443,18 @@
     </row>
     <row r="867" spans="1:3">
       <c r="A867" s="1" t="s">
-        <v>2411</v>
+        <v>2406</v>
       </c>
       <c r="B867" s="1" t="s">
-        <v>2412</v>
+        <v>2407</v>
       </c>
       <c r="C867" s="1" t="s">
-        <v>2413</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="868" spans="1:3">
       <c r="A868" s="1" t="s">
-        <v>2414</v>
+        <v>2409</v>
       </c>
       <c r="B868" s="1" t="s">
         <v>210</v>
@@ -17465,18 +17465,18 @@
     </row>
     <row r="869" spans="1:3">
       <c r="A869" s="1" t="s">
-        <v>2415</v>
+        <v>2410</v>
       </c>
       <c r="B869" s="1" t="s">
-        <v>2416</v>
+        <v>2411</v>
       </c>
       <c r="C869" s="1" t="s">
-        <v>2417</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="870" spans="1:3">
       <c r="A870" s="1" t="s">
-        <v>2418</v>
+        <v>2413</v>
       </c>
       <c r="B870" s="1" t="s">
         <v>209</v>
@@ -17487,7 +17487,7 @@
     </row>
     <row r="871" spans="1:3">
       <c r="A871" s="1" t="s">
-        <v>2419</v>
+        <v>2414</v>
       </c>
       <c r="B871" s="1" t="s">
         <v>153</v>
@@ -17498,29 +17498,29 @@
     </row>
     <row r="872" spans="1:3">
       <c r="A872" s="1" t="s">
-        <v>2420</v>
+        <v>2415</v>
       </c>
       <c r="B872" s="1" t="s">
-        <v>2421</v>
+        <v>2416</v>
       </c>
       <c r="C872" s="1" t="s">
-        <v>2422</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="873" spans="1:3">
       <c r="A873" s="1" t="s">
-        <v>2420</v>
+        <v>2415</v>
       </c>
       <c r="B873" s="1" t="s">
-        <v>2421</v>
+        <v>2416</v>
       </c>
       <c r="C873" s="1" t="s">
-        <v>2422</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="874" spans="1:3">
       <c r="A874" s="1" t="s">
-        <v>2423</v>
+        <v>2418</v>
       </c>
       <c r="B874" s="1" t="s">
         <v>119</v>
@@ -17531,7 +17531,7 @@
     </row>
     <row r="875" spans="1:3">
       <c r="A875" s="1" t="s">
-        <v>2424</v>
+        <v>2419</v>
       </c>
       <c r="B875" s="1" t="s">
         <v>215</v>
@@ -17542,7 +17542,7 @@
     </row>
     <row r="876" spans="1:3">
       <c r="A876" s="1" t="s">
-        <v>2425</v>
+        <v>2420</v>
       </c>
       <c r="B876" s="1" t="s">
         <v>216</v>
@@ -17553,7 +17553,7 @@
     </row>
     <row r="877" spans="1:3">
       <c r="A877" s="1" t="s">
-        <v>2426</v>
+        <v>2421</v>
       </c>
       <c r="B877" s="1" t="s">
         <v>217</v>
@@ -17564,7 +17564,7 @@
     </row>
     <row r="878" spans="1:3">
       <c r="A878" s="1" t="s">
-        <v>2427</v>
+        <v>2422</v>
       </c>
       <c r="B878" s="1" t="s">
         <v>218</v>
@@ -17575,7 +17575,7 @@
     </row>
     <row r="879" spans="1:3">
       <c r="A879" s="1" t="s">
-        <v>2428</v>
+        <v>2423</v>
       </c>
       <c r="B879" s="1" t="s">
         <v>219</v>
@@ -17586,29 +17586,29 @@
     </row>
     <row r="880" spans="1:3">
       <c r="A880" s="1" t="s">
-        <v>2429</v>
+        <v>2424</v>
       </c>
       <c r="B880" s="1" t="s">
-        <v>2430</v>
+        <v>2425</v>
       </c>
       <c r="C880" s="1" t="s">
-        <v>2431</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="881" spans="1:3">
       <c r="A881" s="1" t="s">
-        <v>2432</v>
+        <v>2427</v>
       </c>
       <c r="B881" s="1" t="s">
-        <v>2433</v>
+        <v>2428</v>
       </c>
       <c r="C881" s="1" t="s">
-        <v>2434</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="882" spans="1:3">
       <c r="A882" s="1" t="s">
-        <v>2435</v>
+        <v>2430</v>
       </c>
       <c r="B882" s="1" t="s">
         <v>220</v>
@@ -17619,7 +17619,7 @@
     </row>
     <row r="883" spans="1:3">
       <c r="A883" s="1" t="s">
-        <v>2436</v>
+        <v>2431</v>
       </c>
       <c r="B883" s="1" t="s">
         <v>221</v>
@@ -17630,7 +17630,7 @@
     </row>
     <row r="884" spans="1:3">
       <c r="A884" s="1" t="s">
-        <v>2437</v>
+        <v>2432</v>
       </c>
       <c r="B884" s="1" t="s">
         <v>208</v>
@@ -17641,511 +17641,514 @@
     </row>
     <row r="885" spans="1:3">
       <c r="A885" s="1" t="s">
-        <v>2438</v>
+        <v>2433</v>
       </c>
       <c r="B885" s="1" t="s">
-        <v>2439</v>
+        <v>2434</v>
       </c>
       <c r="C885" s="1" t="s">
-        <v>2440</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="886" spans="1:3">
       <c r="A886" s="1" t="s">
-        <v>2441</v>
+        <v>2436</v>
       </c>
       <c r="B886" s="1" t="s">
-        <v>1520</v>
+        <v>1515</v>
       </c>
       <c r="C886" s="1" t="s">
-        <v>2442</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="887" spans="1:3">
       <c r="A887" s="1" t="s">
-        <v>2443</v>
+        <v>2438</v>
       </c>
       <c r="B887" s="1" t="s">
-        <v>1523</v>
+        <v>1518</v>
       </c>
       <c r="C887" s="1" t="s">
-        <v>2442</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="888" spans="1:3">
       <c r="A888" s="1" t="s">
-        <v>2444</v>
+        <v>2439</v>
       </c>
       <c r="B888" s="1" t="s">
-        <v>1526</v>
+        <v>1521</v>
       </c>
       <c r="C888" s="1" t="s">
-        <v>1638</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="889" spans="1:3">
       <c r="A889" s="1" t="s">
-        <v>2444</v>
+        <v>2439</v>
       </c>
       <c r="B889" s="1" t="s">
-        <v>1526</v>
+        <v>1521</v>
       </c>
       <c r="C889" s="1" t="s">
-        <v>1638</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="890" spans="1:3">
       <c r="A890" s="1" t="s">
-        <v>2445</v>
+        <v>2440</v>
       </c>
       <c r="B890" s="1" t="s">
-        <v>1531</v>
+        <v>1526</v>
       </c>
       <c r="C890" s="1" t="s">
-        <v>1640</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="891" spans="1:3">
       <c r="A891" s="1" t="s">
-        <v>2445</v>
+        <v>2440</v>
       </c>
       <c r="B891" s="1" t="s">
-        <v>1531</v>
+        <v>1526</v>
       </c>
       <c r="C891" s="1" t="s">
-        <v>1640</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="892" spans="1:3">
       <c r="A892" s="1" t="s">
-        <v>2445</v>
+        <v>2440</v>
       </c>
       <c r="B892" s="1" t="s">
-        <v>1531</v>
+        <v>1526</v>
       </c>
       <c r="C892" s="1" t="s">
-        <v>1640</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="893" spans="1:3">
       <c r="A893" s="1" t="s">
-        <v>2446</v>
+        <v>2441</v>
       </c>
       <c r="B893" s="1" t="s">
-        <v>1537</v>
+        <v>1532</v>
       </c>
       <c r="C893" s="1" t="s">
-        <v>1643</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="894" spans="1:3">
       <c r="A894" s="1" t="s">
-        <v>2446</v>
+        <v>2441</v>
       </c>
       <c r="B894" s="1" t="s">
-        <v>1537</v>
+        <v>1532</v>
       </c>
       <c r="C894" s="1" t="s">
-        <v>1643</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="895" spans="1:3">
       <c r="A895" s="1" t="s">
-        <v>2447</v>
+        <v>2442</v>
       </c>
       <c r="B895" s="1" t="s">
-        <v>1541</v>
+        <v>1536</v>
       </c>
       <c r="C895" s="1" t="s">
-        <v>1643</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="896" spans="1:3">
       <c r="A896" s="1" t="s">
-        <v>2447</v>
+        <v>2442</v>
       </c>
       <c r="B896" s="1" t="s">
-        <v>1541</v>
+        <v>1536</v>
       </c>
       <c r="C896" s="1" t="s">
-        <v>1643</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="897" spans="1:3">
       <c r="A897" s="1" t="s">
-        <v>2448</v>
+        <v>2443</v>
       </c>
       <c r="B897" s="1" t="s">
-        <v>1545</v>
+        <v>1540</v>
       </c>
       <c r="C897" s="1" t="s">
-        <v>1643</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="898" spans="1:3">
       <c r="A898" s="1" t="s">
-        <v>2448</v>
+        <v>2443</v>
       </c>
       <c r="B898" s="1" t="s">
-        <v>1545</v>
+        <v>1540</v>
       </c>
       <c r="C898" s="1" t="s">
-        <v>1643</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="899" spans="1:3">
       <c r="A899" s="1" t="s">
-        <v>2448</v>
+        <v>2443</v>
       </c>
       <c r="B899" s="1" t="s">
-        <v>1545</v>
+        <v>1540</v>
       </c>
       <c r="C899" s="1" t="s">
-        <v>1643</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="900" spans="1:3">
       <c r="A900" s="1" t="s">
-        <v>2449</v>
+        <v>2444</v>
       </c>
       <c r="B900" s="1" t="s">
-        <v>1550</v>
+        <v>1545</v>
       </c>
       <c r="C900" s="1" t="s">
-        <v>1643</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="901" spans="1:3">
       <c r="A901" s="1" t="s">
-        <v>2449</v>
+        <v>2444</v>
       </c>
       <c r="B901" s="1" t="s">
-        <v>1550</v>
+        <v>1545</v>
       </c>
       <c r="C901" s="1" t="s">
-        <v>1643</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="902" spans="1:3">
       <c r="A902" s="1" t="s">
-        <v>2449</v>
+        <v>2444</v>
       </c>
       <c r="B902" s="1" t="s">
-        <v>1550</v>
+        <v>1545</v>
       </c>
       <c r="C902" s="1" t="s">
-        <v>1643</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="903" spans="1:3">
       <c r="A903" s="1" t="s">
-        <v>2450</v>
+        <v>2445</v>
       </c>
       <c r="B903" s="1" t="s">
-        <v>1557</v>
+        <v>1552</v>
       </c>
       <c r="C903" s="1" t="s">
-        <v>2451</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="904" spans="1:3">
       <c r="A904" s="1" t="s">
-        <v>2452</v>
+        <v>2447</v>
       </c>
       <c r="B904" s="1" t="s">
-        <v>1560</v>
+        <v>1555</v>
       </c>
       <c r="C904" s="1" t="s">
-        <v>1643</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="905" spans="1:3">
       <c r="A905" s="1" t="s">
-        <v>2452</v>
+        <v>2447</v>
       </c>
       <c r="B905" s="1" t="s">
-        <v>1560</v>
+        <v>1555</v>
       </c>
       <c r="C905" s="1" t="s">
-        <v>1643</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="906" spans="1:3">
       <c r="A906" s="1" t="s">
-        <v>2453</v>
+        <v>2448</v>
       </c>
       <c r="B906" s="1" t="s">
-        <v>1565</v>
+        <v>1560</v>
       </c>
       <c r="C906" s="1" t="s">
-        <v>1643</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="907" spans="1:3">
       <c r="A907" s="1" t="s">
-        <v>2453</v>
+        <v>2448</v>
       </c>
       <c r="B907" s="1" t="s">
-        <v>1565</v>
+        <v>1560</v>
       </c>
       <c r="C907" s="1" t="s">
-        <v>1643</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="908" spans="1:3">
       <c r="A908" s="1" t="s">
-        <v>2453</v>
+        <v>2448</v>
       </c>
       <c r="B908" s="1" t="s">
-        <v>1565</v>
+        <v>1560</v>
       </c>
       <c r="C908" s="1" t="s">
-        <v>1643</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="909" spans="1:3">
       <c r="A909" s="1" t="s">
-        <v>2454</v>
+        <v>2449</v>
       </c>
       <c r="B909" s="1" t="s">
-        <v>1572</v>
+        <v>1567</v>
       </c>
       <c r="C909" s="1" t="s">
-        <v>1640</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="910" spans="1:3">
       <c r="A910" s="1" t="s">
-        <v>2454</v>
+        <v>2449</v>
       </c>
       <c r="B910" s="1" t="s">
-        <v>1572</v>
+        <v>1567</v>
       </c>
       <c r="C910" s="1" t="s">
-        <v>1640</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="911" spans="1:3">
       <c r="A911" s="1" t="s">
-        <v>2455</v>
+        <v>2450</v>
       </c>
       <c r="B911" s="1" t="s">
-        <v>1576</v>
+        <v>1571</v>
       </c>
       <c r="C911" s="1" t="s">
-        <v>1640</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="912" spans="1:3">
       <c r="A912" s="1" t="s">
-        <v>2455</v>
+        <v>2450</v>
       </c>
       <c r="B912" s="1" t="s">
-        <v>1576</v>
+        <v>1571</v>
       </c>
       <c r="C912" s="1" t="s">
-        <v>1640</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="913" spans="1:3">
       <c r="A913" s="1" t="s">
-        <v>2455</v>
+        <v>2450</v>
       </c>
       <c r="B913" s="1" t="s">
-        <v>1576</v>
+        <v>1571</v>
       </c>
       <c r="C913" s="1" t="s">
-        <v>1640</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="914" spans="1:3">
       <c r="A914" s="1" t="s">
-        <v>2456</v>
+        <v>2451</v>
       </c>
       <c r="B914" s="1" t="s">
-        <v>1580</v>
+        <v>1575</v>
       </c>
       <c r="C914" s="1" t="s">
-        <v>1638</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="915" spans="1:3">
       <c r="A915" s="1" t="s">
-        <v>2456</v>
+        <v>2451</v>
       </c>
       <c r="B915" s="1" t="s">
-        <v>1580</v>
+        <v>1575</v>
       </c>
       <c r="C915" s="1" t="s">
-        <v>1638</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="916" spans="1:3">
       <c r="A916" s="1" t="s">
-        <v>2456</v>
+        <v>2451</v>
       </c>
       <c r="B916" s="1" t="s">
-        <v>1580</v>
+        <v>1575</v>
       </c>
       <c r="C916" s="1" t="s">
-        <v>1638</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="917" spans="1:3">
       <c r="A917" s="1" t="s">
-        <v>2457</v>
+        <v>2452</v>
       </c>
       <c r="B917" s="1" t="s">
-        <v>1584</v>
+        <v>1579</v>
       </c>
       <c r="C917" s="1" t="s">
-        <v>1640</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="918" spans="1:3">
       <c r="A918" s="1" t="s">
-        <v>2457</v>
+        <v>2452</v>
       </c>
       <c r="B918" s="1" t="s">
-        <v>1584</v>
+        <v>1579</v>
       </c>
       <c r="C918" s="1" t="s">
-        <v>1640</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="919" spans="1:3">
       <c r="A919" s="1" t="s">
-        <v>2457</v>
+        <v>2452</v>
       </c>
       <c r="B919" s="1" t="s">
-        <v>1584</v>
+        <v>1579</v>
       </c>
       <c r="C919" s="1" t="s">
-        <v>1640</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="920" spans="1:3">
       <c r="A920" s="1" t="s">
-        <v>2458</v>
+        <v>2453</v>
       </c>
       <c r="B920" s="1" t="s">
-        <v>2459</v>
+        <v>2454</v>
       </c>
       <c r="C920" s="1" t="s">
-        <v>1643</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="921" spans="1:3">
       <c r="A921" s="1" t="s">
-        <v>2458</v>
+        <v>2453</v>
       </c>
       <c r="B921" s="1" t="s">
-        <v>2459</v>
+        <v>2454</v>
       </c>
       <c r="C921" s="1" t="s">
-        <v>1643</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="922" spans="1:3">
       <c r="A922" s="1" t="s">
-        <v>2458</v>
+        <v>2453</v>
       </c>
       <c r="B922" s="1" t="s">
-        <v>2459</v>
+        <v>2454</v>
       </c>
       <c r="C922" s="1" t="s">
-        <v>1643</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="923" spans="1:3">
       <c r="A923" s="1" t="s">
-        <v>2460</v>
+        <v>2455</v>
       </c>
       <c r="B923" s="1" t="s">
-        <v>2461</v>
+        <v>2456</v>
       </c>
       <c r="C923" s="1" t="s">
-        <v>1638</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="924" spans="1:3">
       <c r="A924" s="1" t="s">
-        <v>2460</v>
+        <v>2455</v>
       </c>
       <c r="B924" s="1" t="s">
-        <v>2461</v>
+        <v>2456</v>
       </c>
       <c r="C924" s="1" t="s">
-        <v>1638</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="925" spans="1:3">
       <c r="A925" s="1" t="s">
-        <v>2460</v>
+        <v>2455</v>
       </c>
       <c r="B925" s="1" t="s">
-        <v>2461</v>
+        <v>2456</v>
       </c>
       <c r="C925" s="1" t="s">
-        <v>1638</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="926" spans="1:3">
       <c r="A926" s="1" t="s">
-        <v>2462</v>
+        <v>2457</v>
       </c>
       <c r="B926" s="1" t="s">
-        <v>2463</v>
+        <v>2458</v>
       </c>
       <c r="C926" s="1" t="s">
-        <v>1638</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="927" spans="1:3">
       <c r="A927" s="1" t="s">
-        <v>2462</v>
+        <v>2457</v>
       </c>
       <c r="B927" s="1" t="s">
-        <v>2463</v>
+        <v>2458</v>
       </c>
       <c r="C927" s="1" t="s">
-        <v>1638</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="928" spans="1:3">
       <c r="A928" s="1" t="s">
-        <v>2462</v>
+        <v>2457</v>
       </c>
       <c r="B928" s="1" t="s">
-        <v>2463</v>
+        <v>2458</v>
       </c>
       <c r="C928" s="1" t="s">
-        <v>1638</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="929" spans="1:3">
       <c r="A929" s="1" t="s">
-        <v>2464</v>
+        <v>2459</v>
       </c>
       <c r="B929" s="1" t="s">
-        <v>2465</v>
+        <v>2460</v>
       </c>
       <c r="C929" s="1" t="s">
-        <v>2466</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="930" spans="1:3">
       <c r="A930" s="1" t="s">
-        <v>2467</v>
+        <v>2462</v>
       </c>
       <c r="B930" s="1" t="s">
-        <v>2468</v>
+        <v>2463</v>
       </c>
       <c r="C930" s="1" t="s">
-        <v>2469</v>
+        <v>2464</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A1:C930">
+    <sortCondition ref="B1:B930"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
